--- a/src/attributions/attributions_ig_traj_429.xlsx
+++ b/src/attributions/attributions_ig_traj_429.xlsx
@@ -1007,10 +1007,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -1061,10 +1061,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1088,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
         <v>0</v>
@@ -1169,10 +1169,10 @@
         <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO2" t="n">
         <v>0</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
@@ -1331,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1358,10 +1358,10 @@
         <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ2" t="n">
         <v>0</v>
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
         <v>0</v>
@@ -1439,10 +1439,10 @@
         <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
         <v>0</v>
@@ -1520,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS2" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.1912735103841556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1172524135005236</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01544331610045988</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.026945747541446</v>
+        <v>-0.04084455705163806</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0.04545403757662421</v>
       </c>
       <c r="H3" t="n">
         <v>-0</v>
@@ -1603,22 +1603,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.2803607755609194</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2345178653032373</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.04274375777908048</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04934477251912731</v>
+        <v>-0.07073462907228821</v>
       </c>
       <c r="O3" t="n">
         <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0.09661569076723513</v>
       </c>
       <c r="Q3" t="n">
         <v>-0</v>
@@ -1627,28 +1627,28 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T3" t="n">
-        <v>-0</v>
+        <v>0.135185987245995</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05940874558508794</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02416303616709777</v>
+        <v>-0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1080752136744518</v>
+        <v>0.1253135378798622</v>
       </c>
       <c r="X3" t="n">
         <v>-0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0</v>
+        <v>-0.0427903332531837</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>-0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.1011859424637583</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.01274648804423442</v>
+        <v>-0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.02022580613215653</v>
+        <v>-0</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.074054917564566</v>
+        <v>-0.07214026667210552</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0</v>
+        <v>-0.003504962578441376</v>
       </c>
       <c r="AI3" t="n">
         <v>-0</v>
@@ -1684,25 +1684,25 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>0.0621761594674141</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.03691049928426036</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.001102754678458897</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.05063109812146643</v>
+        <v>0.02748846071119561</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0</v>
+        <v>-0.04051434933252168</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
@@ -1711,52 +1711,52 @@
         <v>-0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>0.3458589130608589</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.1751618763782411</v>
+        <v>-0</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.03260455410918659</v>
+        <v>-0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.05473060435664232</v>
+        <v>0.169715555613633</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0</v>
+        <v>-0.189899742043436</v>
       </c>
       <c r="BA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>0.015855322325043</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.01077184472797155</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0.01561118711778866</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.03500777394264006</v>
+        <v>-0.05291389349662001</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>0.00582107246823356</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK3" t="n">
         <v>0</v>
@@ -1765,79 +1765,79 @@
         <v>-0</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0</v>
+        <v>-0.08942450746987574</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0.117649098191511</v>
+        <v>-0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0.03251039567828964</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>-0.1312209462131981</v>
+        <v>0.08184788975443601</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR3" t="n">
-        <v>0</v>
+        <v>0.07914186445190051</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT3" t="n">
         <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV3" t="n">
-        <v>-0</v>
+        <v>0.1745142873007227</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.07304516814864208</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.03898173908492902</v>
+        <v>-0</v>
       </c>
       <c r="BY3" t="n">
-        <v>-0.02966912585073405</v>
+        <v>0.121430457362074</v>
       </c>
       <c r="BZ3" t="n">
         <v>0</v>
       </c>
       <c r="CA3" t="n">
-        <v>-0</v>
+        <v>-0.1063661299560261</v>
       </c>
       <c r="CB3" t="n">
         <v>-0</v>
       </c>
       <c r="CC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>-0</v>
+        <v>-0.1081562484577258</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0.06012112735004321</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.0180895243174272</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.01227705209725531</v>
+        <v>0.02018773784696388</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-0</v>
+        <v>0.0418350523507978</v>
       </c>
       <c r="CK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL3" t="n">
         <v>-0</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0</v>
+        <v>0.001550487513381433</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.06757443041829445</v>
+        <v>-0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0.02320274590887721</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.04464819206377153</v>
+        <v>-0.1068222940572895</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
-        <v>-0</v>
+        <v>0.006391095180075561</v>
       </c>
       <c r="CT3" t="n">
         <v>0</v>
@@ -1870,28 +1870,28 @@
         <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW3" t="n">
-        <v>0</v>
+        <v>-0.110196556348984</v>
       </c>
       <c r="CX3" t="n">
-        <v>-0.04012285498211569</v>
+        <v>-0</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.01101347544804919</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.006769318309551661</v>
+        <v>-0.002900741950183282</v>
       </c>
       <c r="DA3" t="n">
         <v>-0</v>
       </c>
       <c r="DB3" t="n">
-        <v>-0</v>
+        <v>0.05778661935190642</v>
       </c>
       <c r="DC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD3" t="n">
         <v>0</v>
@@ -1900,22 +1900,22 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>-0</v>
+        <v>-0.1061553488764212</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0.09312464439217177</v>
+        <v>-0</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.003944672505683336</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.03045314359491038</v>
+        <v>0.08884937412808847</v>
       </c>
       <c r="DJ3" t="n">
         <v>-0</v>
       </c>
       <c r="DK3" t="n">
-        <v>-0</v>
+        <v>0.01534491169546844</v>
       </c>
       <c r="DL3" t="n">
         <v>-0</v>
@@ -1924,25 +1924,25 @@
         <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>-0</v>
+        <v>-0.04729090126219514</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.04140637182899925</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0.006657289128710922</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.02921701020123697</v>
+        <v>-0.02028978714310616</v>
       </c>
       <c r="DS3" t="n">
         <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>-0</v>
+        <v>0.00348809277158767</v>
       </c>
       <c r="DU3" t="n">
         <v>0</v>
@@ -1951,193 +1951,193 @@
         <v>-0</v>
       </c>
       <c r="DW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>-0.1496798608581828</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0.02187162165692844</v>
+        <v>-0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-0.0007559909856012625</v>
+        <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.01423369416750281</v>
+        <v>-0.03646951466540589</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>0.02718189712854432</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0.04811291961364726</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0.06059734665194562</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.04290478669815433</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.01317010292493728</v>
+        <v>0.03061398321258614</v>
       </c>
       <c r="EK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>-0</v>
+        <v>0.06932316469481034</v>
       </c>
       <c r="EM3" t="n">
         <v>-0</v>
       </c>
       <c r="EN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>-0</v>
+        <v>-0.07901745033243264</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.02146829621763072</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.000920889359122683</v>
+        <v>-0</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.0274924246608555</v>
+        <v>-0.04615082579383911</v>
       </c>
       <c r="ET3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU3" t="n">
-        <v>0</v>
+        <v>-0.04446956146828126</v>
       </c>
       <c r="EV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
         <v>-0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>-0</v>
+        <v>-0.1114162330789485</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0.05020065821173769</v>
+        <v>-0</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.01784063592863903</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.001652442861239644</v>
+        <v>-0.01357562123999267</v>
       </c>
       <c r="FC3" t="n">
         <v>0</v>
       </c>
       <c r="FD3" t="n">
-        <v>-0</v>
+        <v>0.05936417113864469</v>
       </c>
       <c r="FE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF3" t="n">
         <v>-0</v>
       </c>
       <c r="FG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>0.001664469114917209</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.08088854560958511</v>
+        <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.02576483221069354</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.004839869445464696</v>
+        <v>-0.05752105311081148</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
-        <v>-0</v>
+        <v>-0.0002427519925802553</v>
       </c>
       <c r="FN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
         <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>-0</v>
+        <v>-0.01203323637238252</v>
       </c>
       <c r="FR3" t="n">
-        <v>-8.303220704843671e-05</v>
+        <v>0</v>
       </c>
       <c r="FS3" t="n">
-        <v>-0.009864508308305788</v>
+        <v>-0</v>
       </c>
       <c r="FT3" t="n">
-        <v>-0.001932385775528218</v>
+        <v>0.003212125092114352</v>
       </c>
       <c r="FU3" t="n">
         <v>-0</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0</v>
+        <v>0.04972060335476991</v>
       </c>
       <c r="FW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX3" t="n">
         <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>-0.03667395536405726</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.05515272846769378</v>
+        <v>-0</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.02289115759995178</v>
+        <v>-0</v>
       </c>
       <c r="GC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD3" t="n">
         <v>-0</v>
       </c>
       <c r="GE3" t="n">
-        <v>0</v>
+        <v>-0.001173731784051535</v>
       </c>
       <c r="GF3" t="n">
         <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2145,10 +2145,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -2199,10 +2199,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -2226,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
@@ -2280,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
@@ -2307,10 +2307,10 @@
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
         <v>0</v>
@@ -2334,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="n">
         <v>0</v>
@@ -2361,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
         <v>0</v>
@@ -2388,10 +2388,10 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2496,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
         <v>0</v>
@@ -2550,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI4" t="n">
         <v>0</v>
@@ -2577,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
         <v>0</v>
@@ -2604,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
         <v>0</v>
@@ -2658,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS4" t="n">
         <v>0</v>
@@ -2711,52 +2711,52 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.3304604717384665</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.2773018009095569</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3346483046895063</v>
+        <v>-0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0</v>
+        <v>-0.1709319222750238</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1823209718379441</v>
+        <v>0.002124643523529515</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.3532496843686571</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.3232767553547445</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5693381358298704</v>
+        <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>-0</v>
+        <v>-0.2078766579173851</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03185189217444409</v>
+        <v>-0.03614070769266522</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -2765,22 +2765,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.008240838921775538</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.1735673972154964</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09713019699282359</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>-0</v>
+        <v>-0.004358890417944773</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1253810755883648</v>
+        <v>0.1201238304873656</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
         <v>-0</v>
@@ -2792,19 +2792,19 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.03215564856913283</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.06800955915483413</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.0973713638753566</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>0.001650293322489391</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.1952145362081515</v>
+        <v>-0.03099140077530024</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -2813,52 +2813,52 @@
         <v>-0</v>
       </c>
       <c r="AI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
         <v>-0</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0.1331014235645692</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>0.01897181084112438</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.1142648181113604</v>
+        <v>-0</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0</v>
+        <v>-0.1193032384038178</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.004642491876060217</v>
+        <v>-0.05232785611489597</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>-0.3556762717630169</v>
+        <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.4327282137923817</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.4600299228306003</v>
+        <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0</v>
+        <v>-0.04817787806375667</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.01871100142511783</v>
+        <v>0.2474807712227255</v>
       </c>
       <c r="AY5" t="n">
         <v>-0</v>
@@ -2867,25 +2867,25 @@
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB5" t="n">
         <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>-0.03818377596651538</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.02007841082537695</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.04236845364571888</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0</v>
+        <v>-0.03967764650047999</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.09660171716395204</v>
+        <v>-0.04943501580789578</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
@@ -2894,28 +2894,28 @@
         <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
         <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.09574258081365972</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0</v>
+        <v>0.01915629465322698</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0.1875383404755233</v>
+        <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0</v>
+        <v>0.03294583971967385</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.188209097855014</v>
+        <v>0.196660417829336</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
@@ -2924,22 +2924,22 @@
         <v>-0</v>
       </c>
       <c r="BT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>-0.3247242058631574</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>-0</v>
+        <v>0.2127937552918518</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.2460114624863987</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>-0</v>
+        <v>0.01566428378021673</v>
       </c>
       <c r="BY5" t="n">
-        <v>-0.07268619864564865</v>
+        <v>0.1369888001597239</v>
       </c>
       <c r="BZ5" t="n">
         <v>0</v>
@@ -2948,52 +2948,52 @@
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.14196356905911</v>
+        <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.1109781378810753</v>
       </c>
       <c r="CF5" t="n">
-        <v>-0.1487820266056064</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0</v>
+        <v>0.02960698295011292</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0759173475682474</v>
+        <v>-0.02274995539126169</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
         <v>-0</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.02831088204921977</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>-0.001436141899206497</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.02644840061207749</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0</v>
+        <v>-0.1580173008842536</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.1883330689161523</v>
+        <v>-0.1371855475670853</v>
       </c>
       <c r="CR5" t="n">
         <v>0</v>
@@ -3002,79 +3002,79 @@
         <v>-0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU5" t="n">
         <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.1082130480896157</v>
+        <v>-0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.1042740610638249</v>
       </c>
       <c r="CX5" t="n">
-        <v>-0.1350622172591155</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0</v>
+        <v>0.0584594873731383</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.1468458967788398</v>
+        <v>-0.01178305334583765</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD5" t="n">
         <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0.0661655294576322</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>-0</v>
+        <v>-0.1325418903587163</v>
       </c>
       <c r="DG5" t="n">
-        <v>-0.183706177612323</v>
+        <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0</v>
+        <v>-0.01949514869834752</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.01025452615953822</v>
+        <v>-0.04284446953782638</v>
       </c>
       <c r="DJ5" t="n">
         <v>-0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM5" t="n">
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.07886431527827824</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>-0</v>
+        <v>-0.00354377167525881</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.08728238672928344</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0</v>
+        <v>-0.09352742489826868</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.1139644639718674</v>
+        <v>-0.06475065613000254</v>
       </c>
       <c r="DS5" t="n">
         <v>0</v>
@@ -3083,55 +3083,55 @@
         <v>-0</v>
       </c>
       <c r="DU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV5" t="n">
         <v>0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.05565715937809078</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.04960892814370845</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.09625017350977977</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0</v>
+        <v>0.02449663297539604</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.09224739539468813</v>
+        <v>-0.04415507476923527</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
         <v>0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
         <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.1932742375774428</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>-0</v>
+        <v>-0.113292483408766</v>
       </c>
       <c r="EH5" t="n">
-        <v>-0.1712220568541162</v>
+        <v>0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>0.02807679612274205</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.09211162328145217</v>
+        <v>0.08659808576004627</v>
       </c>
       <c r="EK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL5" t="n">
         <v>-0</v>
@@ -3140,133 +3140,133 @@
         <v>-0</v>
       </c>
       <c r="EN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.03447304687593984</v>
+        <v>-0</v>
       </c>
       <c r="EP5" t="n">
-        <v>-0</v>
+        <v>-0.1138273587358946</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0.1379412278141364</v>
+        <v>-0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0</v>
+        <v>0.07691172912582374</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.1432701557571689</v>
+        <v>0.002554645224206562</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
         <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.134141263184894</v>
+        <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0</v>
+        <v>-0.1092153671339435</v>
       </c>
       <c r="EZ5" t="n">
-        <v>-0.1528407937372234</v>
+        <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0</v>
+        <v>0.03163677736694261</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.1193115058720174</v>
+        <v>-0.02283601585048151</v>
       </c>
       <c r="FC5" t="n">
         <v>0</v>
       </c>
       <c r="FD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF5" t="n">
         <v>-0</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.1813788755735782</v>
+        <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0.01285859735539381</v>
       </c>
       <c r="FI5" t="n">
-        <v>-0.05340688734059924</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0</v>
+        <v>0.09929373296947509</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.07900641238666886</v>
+        <v>-0.03061584884253409</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
         <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.0870423077026089</v>
+        <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>-0</v>
+        <v>-0.007802959727911293</v>
       </c>
       <c r="FR5" t="n">
-        <v>-0.009865973802027923</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
-        <v>0</v>
+        <v>0.05124667113688459</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.003326191869536588</v>
+        <v>-0.001529626720415848</v>
       </c>
       <c r="FU5" t="n">
         <v>-0</v>
       </c>
       <c r="FV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>-0.0127252666998649</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>-0</v>
+        <v>0.01881757638153156</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.08164446252453686</v>
+        <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0</v>
+        <v>-0.1036454253051109</v>
       </c>
       <c r="GC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE5" t="n">
         <v>-0</v>
@@ -3275,108 +3275,108 @@
         <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.1119061073808601</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2717980000688532</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02110174869303385</v>
+        <v>-0.02964204051597235</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0.0774026820496217</v>
       </c>
       <c r="G6" t="n">
         <v>-0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1023059570680552</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.1187681007878701</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3843266441326257</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1259425218825191</v>
+        <v>-0.02848555426378352</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.1594740987750541</v>
       </c>
       <c r="P6" t="n">
         <v>-0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.2064428375883731</v>
+        <v>-0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.01471175716178471</v>
       </c>
       <c r="U6" t="n">
-        <v>0.009387919569629262</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.05919923965103277</v>
+        <v>-0.03573368855965037</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.003569307520116752</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.03306215263332968</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0</v>
+        <v>0.02422355756365834</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.004981827000365841</v>
+        <v>-0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.08923071824222525</v>
+        <v>0.01237014319306078</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>0.005353344881878945</v>
       </c>
       <c r="AH6" t="n">
         <v>-0</v>
@@ -3385,79 +3385,79 @@
         <v>-0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.1070497292434239</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0</v>
+        <v>0.01954382650047583</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.09762993256319893</v>
+        <v>-0</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.08639439119545791</v>
+        <v>-0.02291212155421513</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>-0.03604989516040851</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0.02703989941943161</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0</v>
+        <v>0.1358727689925101</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.2875363608685658</v>
+        <v>-0</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.02312325871015535</v>
+        <v>-0.05256267994053983</v>
       </c>
       <c r="AY6" t="n">
-        <v>-0</v>
+        <v>-0.1192505961073746</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
         <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0.1733067130224349</v>
+        <v>0</v>
       </c>
       <c r="BC6" t="n">
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>0.02885774680331783</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.06592843534725942</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
         <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.02484126777436094</v>
+        <v>-0.01614988952648473</v>
       </c>
       <c r="BH6" t="n">
-        <v>0</v>
+        <v>-0.007826790542978131</v>
       </c>
       <c r="BI6" t="n">
         <v>-0</v>
@@ -3466,133 +3466,133 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.001204211857147458</v>
+        <v>-0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>0.04578808811915442</v>
       </c>
       <c r="BN6" t="n">
-        <v>-0.1121543035640361</v>
+        <v>-0</v>
       </c>
       <c r="BO6" t="n">
         <v>0</v>
       </c>
       <c r="BP6" t="n">
-        <v>-0.08443662565947617</v>
+        <v>0.002721919169541816</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>0.01776219413490068</v>
       </c>
       <c r="BR6" t="n">
         <v>-0</v>
       </c>
       <c r="BS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.09297065187186948</v>
+        <v>-0</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.06278986727875581</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.1887050301996921</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.008624316186539067</v>
+        <v>-0.015994167467405</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>-0.04676285218861696</v>
       </c>
       <c r="CA6" t="n">
         <v>-0</v>
       </c>
       <c r="CB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC6" t="n">
-        <v>-0.1824045215413615</v>
+        <v>0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>-0</v>
+        <v>-0.03411697082092986</v>
       </c>
       <c r="CF6" t="n">
-        <v>-0.1096636427557242</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
         <v>0</v>
       </c>
       <c r="CH6" t="n">
-        <v>-0.03606062184924678</v>
+        <v>0.002604890137771131</v>
       </c>
       <c r="CI6" t="n">
-        <v>-0</v>
+        <v>0.04867661027729598</v>
       </c>
       <c r="CJ6" t="n">
         <v>0</v>
       </c>
       <c r="CK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.05146428782675899</v>
+        <v>0</v>
       </c>
       <c r="CM6" t="n">
         <v>-0</v>
       </c>
       <c r="CN6" t="n">
-        <v>-0</v>
+        <v>-0.005809534617995238</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0.008289594944762254</v>
+        <v>-0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.1000280910471024</v>
+        <v>0.01341125414828138</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.02069943942371517</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0.09378293517534655</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0</v>
+        <v>-0.02398853895093821</v>
       </c>
       <c r="CX6" t="n">
-        <v>-0.0970958087525646</v>
+        <v>-0</v>
       </c>
       <c r="CY6" t="n">
         <v>-0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.002595550341159139</v>
+        <v>-0.002938280795131109</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0.05276451868259511</v>
       </c>
       <c r="DB6" t="n">
         <v>-0</v>
@@ -3601,25 +3601,25 @@
         <v>-0</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.04492979467706579</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>-0</v>
+        <v>0.0108241387501756</v>
       </c>
       <c r="DG6" t="n">
-        <v>-0.09282455127184649</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.07395880571369889</v>
+        <v>0.04431564764294891</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>0.03028845269206921</v>
       </c>
       <c r="DK6" t="n">
         <v>0</v>
@@ -3628,106 +3628,106 @@
         <v>0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0.01120467061055436</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
         <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0</v>
+        <v>-0.01041242346621587</v>
       </c>
       <c r="DP6" t="n">
-        <v>-0.03626811577333378</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>-0.02782576648980173</v>
+        <v>0.006202621719507907</v>
       </c>
       <c r="DS6" t="n">
-        <v>0</v>
+        <v>0.02094876644697482</v>
       </c>
       <c r="DT6" t="n">
         <v>0</v>
       </c>
       <c r="DU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV6" t="n">
-        <v>-0.120677811585008</v>
+        <v>0</v>
       </c>
       <c r="DW6" t="n">
         <v>-0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0</v>
+        <v>0.01364671537720359</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.05888969875639312</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.03658521345055718</v>
+        <v>-0.01349779066194938</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>-0.03068989034804744</v>
       </c>
       <c r="EC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
       </c>
       <c r="EE6" t="n">
-        <v>-0.01985030576150896</v>
+        <v>-0</v>
       </c>
       <c r="EF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0.03392422050990113</v>
       </c>
       <c r="EH6" t="n">
-        <v>-0.08939560411745111</v>
+        <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.1414715708907397</v>
+        <v>0.007484974638955001</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.02358499701266664</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>0.02543891761108948</v>
+        <v>-0</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>0.00666013788376032</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.05717567119051305</v>
+        <v>-0</v>
       </c>
       <c r="ER6" t="n">
         <v>0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.04037465540738391</v>
+        <v>0.008091263963107213</v>
       </c>
       <c r="ET6" t="n">
-        <v>0</v>
+        <v>0.03587802974555144</v>
       </c>
       <c r="EU6" t="n">
         <v>0</v>
@@ -3736,106 +3736,106 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>0.1462556812713631</v>
+        <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0.02181675826989959</v>
       </c>
       <c r="EZ6" t="n">
-        <v>-0.1093529959908766</v>
+        <v>-0</v>
       </c>
       <c r="FA6" t="n">
         <v>0</v>
       </c>
       <c r="FB6" t="n">
-        <v>-0.006154043086175182</v>
+        <v>0.006536945180870393</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>0.04832734798975944</v>
       </c>
       <c r="FD6" t="n">
         <v>0</v>
       </c>
       <c r="FE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF6" t="n">
-        <v>0.05790077757610344</v>
+        <v>-0</v>
       </c>
       <c r="FG6" t="n">
         <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0</v>
+        <v>-0.02071897074804001</v>
       </c>
       <c r="FI6" t="n">
-        <v>-0.1353725139672182</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.08642598531157383</v>
+        <v>-0.02325213095944769</v>
       </c>
       <c r="FL6" t="n">
-        <v>-0</v>
+        <v>0.03090468164627593</v>
       </c>
       <c r="FM6" t="n">
         <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
-        <v>0.05137997083785766</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
         <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>-0</v>
+        <v>-0.004676763264850553</v>
       </c>
       <c r="FR6" t="n">
-        <v>-0.02465174688347114</v>
+        <v>0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.01006110246090319</v>
+        <v>0.00224202306191417</v>
       </c>
       <c r="FU6" t="n">
-        <v>-0</v>
+        <v>0.04318108561725917</v>
       </c>
       <c r="FV6" t="n">
         <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
-        <v>0.1542432089697958</v>
+        <v>0</v>
       </c>
       <c r="FY6" t="n">
         <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>-0</v>
+        <v>-0.01183884360271291</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.05822299874793357</v>
+        <v>0</v>
       </c>
       <c r="GB6" t="n">
         <v>-0</v>
       </c>
       <c r="GC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>-0.03533705159214989</v>
       </c>
       <c r="GE6" t="n">
         <v>-0</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="GG6" t="n">
-        <v>0.1007308755882597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3852,10 +3852,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3879,10 +3879,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -3933,10 +3933,10 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
         <v>0</v>
@@ -3987,10 +3987,10 @@
         <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="n">
         <v>0</v>
@@ -4014,10 +4014,10 @@
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
         <v>0</v>
@@ -4041,10 +4041,10 @@
         <v>0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO7" t="n">
         <v>0</v>
@@ -4068,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
         <v>0</v>
@@ -4095,10 +4095,10 @@
         <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
         <v>0</v>
@@ -4122,10 +4122,10 @@
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
         <v>0</v>
@@ -4176,10 +4176,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -4203,10 +4203,10 @@
         <v>0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
         <v>0</v>
@@ -4257,10 +4257,10 @@
         <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
         <v>0</v>
@@ -4284,10 +4284,10 @@
         <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
         <v>0</v>
@@ -4311,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
         <v>0</v>
@@ -4338,10 +4338,10 @@
         <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ7" t="n">
         <v>0</v>
@@ -4365,10 +4365,10 @@
         <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS7" t="n">
         <v>0</v>
@@ -4418,55 +4418,55 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>0.1695644144476582</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1656580189109181</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003515232753280088</v>
+        <v>-0.1215150680338685</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01722245533609553</v>
+        <v>-0</v>
       </c>
       <c r="H8" t="n">
-        <v>-0</v>
+        <v>-0.02111340195184868</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.1702166929219318</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2262219073808217</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03551293577287392</v>
+        <v>-0.160313513031592</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03651042496071543</v>
+        <v>-0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>-0.1086574080189101</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -4475,52 +4475,52 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.1415757851362723</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.0168542979096294</v>
+        <v>-0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.0355300046285525</v>
+        <v>0.05294046119084305</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.05312183256316667</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>-0.0335130414488258</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
         <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.103884255443922</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.03544509839400095</v>
+        <v>-0</v>
       </c>
       <c r="AE8" t="n">
         <v>-0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.06320886337831511</v>
+        <v>-0.09460465614763876</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.01506902680579427</v>
+        <v>-0</v>
       </c>
       <c r="AI8" t="n">
-        <v>-0</v>
+        <v>-0.03753857880250319</v>
       </c>
       <c r="AJ8" t="n">
         <v>-0</v>
@@ -4529,52 +4529,52 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>-0</v>
+        <v>0.07895486486987575</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.06037506645976207</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.01939386055969695</v>
+        <v>-0.07308108513732497</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.01200070022921606</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>-0.02662611596864492</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
         <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>-0</v>
+        <v>0.3676604453216667</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.1255537959095815</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
         <v>-0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.04929867681793231</v>
+        <v>0.0345846482843029</v>
       </c>
       <c r="AY8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.04263858897681153</v>
+        <v>-0</v>
       </c>
       <c r="BA8" t="n">
-        <v>-0</v>
+        <v>0.1020559031703412</v>
       </c>
       <c r="BB8" t="n">
         <v>0</v>
@@ -4583,52 +4583,52 @@
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0.01482714182004296</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.04720106318258636</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
         <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.02807393704296231</v>
+        <v>-0.07964234851312525</v>
       </c>
       <c r="BH8" t="n">
         <v>0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.002912814857376456</v>
+        <v>-0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0</v>
+        <v>-0.01982616584823643</v>
       </c>
       <c r="BK8" t="n">
         <v>0</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>-0</v>
+        <v>0.1303080343157565</v>
       </c>
       <c r="BN8" t="n">
-        <v>-0.06485331152999663</v>
+        <v>-0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP8" t="n">
-        <v>-0.001254113296841983</v>
+        <v>0.1273285953242965</v>
       </c>
       <c r="BQ8" t="n">
         <v>-0</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.0139185006003973</v>
+        <v>-0</v>
       </c>
       <c r="BS8" t="n">
-        <v>-0</v>
+        <v>0.07291102541498046</v>
       </c>
       <c r="BT8" t="n">
         <v>0</v>
@@ -4637,25 +4637,25 @@
         <v>-0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.2408428560122092</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.09294956883116169</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
-        <v>-0.003790544378095295</v>
+        <v>-0.008249238374271276</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.04631190768006121</v>
+        <v>-0</v>
       </c>
       <c r="CB8" t="n">
-        <v>-0</v>
+        <v>0.05073984972084462</v>
       </c>
       <c r="CC8" t="n">
         <v>0</v>
@@ -4664,52 +4664,52 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>-0</v>
+        <v>-0.05649848229335751</v>
       </c>
       <c r="CF8" t="n">
-        <v>-0.0559818212640069</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH8" t="n">
-        <v>-0.011698416427752</v>
+        <v>0.02706257375124173</v>
       </c>
       <c r="CI8" t="n">
         <v>-0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>-0.02292984891688689</v>
+        <v>-0</v>
       </c>
       <c r="CK8" t="n">
-        <v>0</v>
+        <v>0.007587977714496206</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0</v>
+        <v>-0.09592347463077937</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.01552968115007548</v>
+        <v>-0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.02213966551018513</v>
+        <v>-0.1638837981304989</v>
       </c>
       <c r="CR8" t="n">
         <v>-0</v>
       </c>
       <c r="CS8" t="n">
-        <v>-0.03132434478951618</v>
+        <v>0</v>
       </c>
       <c r="CT8" t="n">
-        <v>-0</v>
+        <v>-0.01240342880811449</v>
       </c>
       <c r="CU8" t="n">
         <v>0</v>
@@ -4718,52 +4718,52 @@
         <v>-0</v>
       </c>
       <c r="CW8" t="n">
-        <v>0</v>
+        <v>-0.04014284160072558</v>
       </c>
       <c r="CX8" t="n">
-        <v>-0.05731587988958146</v>
+        <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.01378089413272467</v>
+        <v>0.01064817579079889</v>
       </c>
       <c r="DA8" t="n">
         <v>0</v>
       </c>
       <c r="DB8" t="n">
-        <v>-0.02008932671941514</v>
+        <v>0</v>
       </c>
       <c r="DC8" t="n">
-        <v>-0</v>
+        <v>-0.006362382448172587</v>
       </c>
       <c r="DD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0.2178274646739015</v>
       </c>
       <c r="DG8" t="n">
-        <v>-0.04347799351304456</v>
+        <v>-0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI8" t="n">
-        <v>-0.02525910289306741</v>
+        <v>0.05736297695236896</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK8" t="n">
-        <v>-0.01094555224675699</v>
+        <v>0</v>
       </c>
       <c r="DL8" t="n">
-        <v>0</v>
+        <v>-0.05417255741384178</v>
       </c>
       <c r="DM8" t="n">
         <v>0</v>
@@ -4772,79 +4772,79 @@
         <v>-0</v>
       </c>
       <c r="DO8" t="n">
-        <v>-0</v>
+        <v>-0.03001173294825847</v>
       </c>
       <c r="DP8" t="n">
-        <v>-0.02025679110924999</v>
+        <v>-0</v>
       </c>
       <c r="DQ8" t="n">
         <v>0</v>
       </c>
       <c r="DR8" t="n">
-        <v>-0.02741564170577844</v>
+        <v>-0.06111976535616231</v>
       </c>
       <c r="DS8" t="n">
         <v>0</v>
       </c>
       <c r="DT8" t="n">
-        <v>-0.03048391141287243</v>
+        <v>0</v>
       </c>
       <c r="DU8" t="n">
-        <v>0</v>
+        <v>0.07077714105823922</v>
       </c>
       <c r="DV8" t="n">
         <v>0</v>
       </c>
       <c r="DW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX8" t="n">
-        <v>-0</v>
+        <v>0.07330185969311666</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.04646584271180928</v>
+        <v>0</v>
       </c>
       <c r="DZ8" t="n">
         <v>-0</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.00995252150415863</v>
+        <v>-0.001375336168628384</v>
       </c>
       <c r="EB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.0372222475707604</v>
+        <v>0</v>
       </c>
       <c r="ED8" t="n">
-        <v>-0</v>
+        <v>0.003340943540596913</v>
       </c>
       <c r="EE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF8" t="n">
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>0.02225209175060179</v>
       </c>
       <c r="EH8" t="n">
-        <v>-0.09522463623430456</v>
+        <v>0</v>
       </c>
       <c r="EI8" t="n">
         <v>-0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>-0.0170509748383663</v>
+        <v>0.04435149956788909</v>
       </c>
       <c r="EK8" t="n">
         <v>-0</v>
       </c>
       <c r="EL8" t="n">
-        <v>-0.01927757010412851</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
-        <v>0</v>
+        <v>0.01700158444883986</v>
       </c>
       <c r="EN8" t="n">
         <v>-0</v>
@@ -4853,133 +4853,133 @@
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>0.0003464553699039973</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.01748666354592697</v>
+        <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.04547237697678747</v>
+        <v>0.01955993567440947</v>
       </c>
       <c r="ET8" t="n">
         <v>-0</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.009767489830677639</v>
+        <v>-0</v>
       </c>
       <c r="EV8" t="n">
-        <v>0</v>
+        <v>-0.01914613774411443</v>
       </c>
       <c r="EW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX8" t="n">
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0.04026971739437694</v>
       </c>
       <c r="EZ8" t="n">
-        <v>-0.05693890558351716</v>
+        <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB8" t="n">
-        <v>-0.004348512106956779</v>
+        <v>0.008306420124009036</v>
       </c>
       <c r="FC8" t="n">
         <v>-0</v>
       </c>
       <c r="FD8" t="n">
-        <v>-0.01472137513511881</v>
+        <v>-0</v>
       </c>
       <c r="FE8" t="n">
-        <v>0</v>
+        <v>0.008047909376652175</v>
       </c>
       <c r="FF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0.02225815511910279</v>
       </c>
       <c r="FI8" t="n">
-        <v>-0.01658564216681944</v>
+        <v>-0</v>
       </c>
       <c r="FJ8" t="n">
         <v>0</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.003279619525361311</v>
+        <v>-0.004820057813897297</v>
       </c>
       <c r="FL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.007097739487462904</v>
+        <v>-0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>-0.04693304821861666</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>-0</v>
+        <v>-0.001199493060553601</v>
       </c>
       <c r="FR8" t="n">
-        <v>-0.005979181382803673</v>
+        <v>-0</v>
       </c>
       <c r="FS8" t="n">
         <v>-0</v>
       </c>
       <c r="FT8" t="n">
-        <v>-0.004276915671152346</v>
+        <v>0.008331984907812468</v>
       </c>
       <c r="FU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.009027302153470227</v>
+        <v>0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0</v>
+        <v>-0.07852872037282509</v>
       </c>
       <c r="FX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY8" t="n">
         <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0</v>
+        <v>-0.109350021632686</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.008096190128042031</v>
+        <v>-0</v>
       </c>
       <c r="GB8" t="n">
         <v>-0</v>
       </c>
       <c r="GC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.0006408312190811876</v>
+        <v>-0</v>
       </c>
       <c r="GF8" t="n">
-        <v>0</v>
+        <v>-0.07276329797423869</v>
       </c>
       <c r="GG8" t="n">
         <v>0</v>
@@ -4987,49 +4987,49 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>-0.1177698714293708</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.2250088690278587</v>
+        <v>0.3249752564862312</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2907237636925613</v>
+        <v>-0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02270529434789959</v>
+        <v>-0.151718453081389</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>-0.09192326391032815</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.2060072879364085</v>
+        <v>0.3017894514533932</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3532204831298378</v>
+        <v>-0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.08818657990339303</v>
+        <v>-0.2640550751985269</v>
       </c>
       <c r="O9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -5041,46 +5041,46 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.01554456825218738</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.1446186114034421</v>
+        <v>0.2405542190348784</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1330132592252944</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.01998930099848873</v>
+        <v>0.1486571685804677</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0</v>
+        <v>0.04312879386260491</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.09508875936106143</v>
+        <v>0.141569984750978</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.09266524649911735</v>
+        <v>-0</v>
       </c>
       <c r="AE9" t="n">
         <v>-0</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.04349656143690917</v>
+        <v>-0.05437778698158643</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -5095,19 +5095,19 @@
         <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>-0.05750962004694525</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0.1079843923176205</v>
+        <v>0.1610901980328689</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.07988652932675176</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.01890055388422343</v>
+        <v>0.04925849284550114</v>
       </c>
       <c r="AP9" t="n">
         <v>0</v>
@@ -5116,58 +5116,58 @@
         <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>0.1407057404946695</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0.2244203169203821</v>
+        <v>0.4392127026231664</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.08721716776616742</v>
+        <v>-0</v>
       </c>
       <c r="AW9" t="n">
         <v>-0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.1382158801032712</v>
+        <v>0.2036085458227275</v>
       </c>
       <c r="AY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ9" t="n">
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0</v>
+        <v>-0.05523357514575405</v>
       </c>
       <c r="BD9" t="n">
-        <v>-0.0778423689502909</v>
+        <v>-0.03507317412798312</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.1071578708059322</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
         <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.10268332483253</v>
+        <v>-0.2061355525993748</v>
       </c>
       <c r="BH9" t="n">
         <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ9" t="n">
         <v>0</v>
@@ -5176,46 +5176,46 @@
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0</v>
+        <v>-0.02752323103099041</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.01795864052014113</v>
+        <v>-0.02003646584046534</v>
       </c>
       <c r="BN9" t="n">
-        <v>-0.1334408595791697</v>
+        <v>-0</v>
       </c>
       <c r="BO9" t="n">
         <v>-0</v>
       </c>
       <c r="BP9" t="n">
-        <v>-0.1335529140248649</v>
+        <v>0.1208013638998381</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0</v>
+        <v>0.07227523953236691</v>
       </c>
       <c r="BV9" t="n">
-        <v>-0.1409435411253228</v>
+        <v>0.3051770644005236</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.1797344493799469</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.04172219180484737</v>
+        <v>0.07106241098085622</v>
       </c>
       <c r="BZ9" t="n">
         <v>0</v>
@@ -5230,46 +5230,46 @@
         <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>-0</v>
+        <v>0.0199102581058963</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.06937027553446894</v>
+        <v>-0.09583553457955192</v>
       </c>
       <c r="CF9" t="n">
-        <v>-0.06385975080526486</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.003101582067446991</v>
+        <v>0.009572897401322574</v>
       </c>
       <c r="CI9" t="n">
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL9" t="n">
         <v>-0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>-0.1836329161309005</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.01023966298455887</v>
+        <v>-0.01959299996428621</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.05991513301170733</v>
+        <v>-0</v>
       </c>
       <c r="CP9" t="n">
         <v>-0</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.1492398778116818</v>
+        <v>-0.1643425632976743</v>
       </c>
       <c r="CR9" t="n">
         <v>-0</v>
@@ -5284,52 +5284,52 @@
         <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>0</v>
+        <v>0.01217971553519494</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.05369069637343037</v>
+        <v>-0.1005903010492936</v>
       </c>
       <c r="CX9" t="n">
-        <v>-0.07722068540480853</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.02020544272068102</v>
+        <v>0.008676440907185279</v>
       </c>
       <c r="DA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
         <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>-0</v>
+        <v>0.1080623713875584</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.1535913715330727</v>
+        <v>-0.2587886085915038</v>
       </c>
       <c r="DG9" t="n">
-        <v>-0.02618195671171932</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.04930673721180533</v>
+        <v>0.09318552878313725</v>
       </c>
       <c r="DJ9" t="n">
         <v>0</v>
       </c>
       <c r="DK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
         <v>0</v>
@@ -5338,46 +5338,46 @@
         <v>-0</v>
       </c>
       <c r="DN9" t="n">
-        <v>-0</v>
+        <v>-0.08073664474910421</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.08330687248676889</v>
+        <v>-0.09453740344308463</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.07024433135138632</v>
+        <v>-0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.00620238937652855</v>
+        <v>-0.02458841430406961</v>
       </c>
       <c r="DS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
         <v>0</v>
       </c>
       <c r="DW9" t="n">
-        <v>-0</v>
+        <v>-0.03115042677729704</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.06010608255235896</v>
+        <v>0.141402847967315</v>
       </c>
       <c r="DY9" t="n">
-        <v>0.08246173314207075</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
         <v>-0</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.0119252627925882</v>
+        <v>-0.08505250227120421</v>
       </c>
       <c r="EB9" t="n">
         <v>0</v>
@@ -5386,109 +5386,109 @@
         <v>0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE9" t="n">
         <v>-0</v>
       </c>
       <c r="EF9" t="n">
-        <v>-0</v>
+        <v>-0.03801498935401587</v>
       </c>
       <c r="EG9" t="n">
-        <v>-0.03816015853978372</v>
+        <v>0.07130168173774544</v>
       </c>
       <c r="EH9" t="n">
-        <v>-0.07028944113847381</v>
+        <v>0</v>
       </c>
       <c r="EI9" t="n">
         <v>-0</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.06804898355409687</v>
+        <v>0.01977181716631723</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO9" t="n">
-        <v>0</v>
+        <v>-0.02229985150782946</v>
       </c>
       <c r="EP9" t="n">
-        <v>0.1262584541299686</v>
+        <v>-0.09002744793433408</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0.05098529447487597</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.1186585226524544</v>
+        <v>-0.008863210898384634</v>
       </c>
       <c r="ET9" t="n">
         <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX9" t="n">
-        <v>-0</v>
+        <v>0.01080461303996895</v>
       </c>
       <c r="EY9" t="n">
-        <v>0.04055501308898243</v>
+        <v>-0.1048638224331706</v>
       </c>
       <c r="EZ9" t="n">
-        <v>-0.07875315480065698</v>
+        <v>-0</v>
       </c>
       <c r="FA9" t="n">
         <v>-0</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.009708221548080745</v>
+        <v>-0.02730788943885895</v>
       </c>
       <c r="FC9" t="n">
         <v>0</v>
       </c>
       <c r="FD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF9" t="n">
         <v>-0</v>
       </c>
       <c r="FG9" t="n">
-        <v>0</v>
+        <v>0.08845141938396059</v>
       </c>
       <c r="FH9" t="n">
-        <v>0.0736959919188878</v>
+        <v>-0.03713189621380895</v>
       </c>
       <c r="FI9" t="n">
-        <v>-0.1161744927499527</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK9" t="n">
-        <v>-0.0311842165435956</v>
+        <v>-0.07646611775332582</v>
       </c>
       <c r="FL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM9" t="n">
         <v>0</v>
@@ -5497,22 +5497,22 @@
         <v>0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>0</v>
+        <v>-0.04652254813282305</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0.108862708999633</v>
+        <v>-0.02859300127721811</v>
       </c>
       <c r="FR9" t="n">
-        <v>-0.003682946520972721</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.009759656114552687</v>
+        <v>0.001755154227389984</v>
       </c>
       <c r="FU9" t="n">
         <v>0</v>
@@ -5527,19 +5527,19 @@
         <v>-0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0</v>
+        <v>-0.07331234900531676</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0.005150082904732751</v>
+        <v>-0.06132199791436554</v>
       </c>
       <c r="GA9" t="n">
-        <v>0.1225450519166796</v>
+        <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD9" t="n">
         <v>-0</v>
@@ -5551,7 +5551,7 @@
         <v>-0</v>
       </c>
       <c r="GG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
@@ -5559,25 +5559,25 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.2058500451588145</v>
       </c>
       <c r="C10" t="n">
-        <v>0.179351868592907</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.08653356857244872</v>
+        <v>-0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.008483072455693354</v>
+        <v>-0.08870829256096012</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0.2080093949240779</v>
       </c>
       <c r="H10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.1290592541817942</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2088145172727339</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.07014658070552489</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.08374179304162856</v>
+        <v>-0.1248583093041691</v>
       </c>
       <c r="O10" t="n">
         <v>-0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0.1938639628999057</v>
       </c>
       <c r="Q10" t="n">
         <v>-0</v>
@@ -5613,133 +5613,133 @@
         <v>-0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1121043777129248</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04680181764467287</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.07306740148192561</v>
+        <v>-0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.07220555238046489</v>
+        <v>0.187184719351781</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0.07665819793054886</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB10" t="n">
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.1559524814782994</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.01827666312283245</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.03532390847796039</v>
+        <v>-0</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.01895893291435395</v>
+        <v>0.04995776987423239</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0</v>
+        <v>-0.02289454176627528</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
         <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.02133836310122615</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.04791158202132722</v>
+        <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0.009649923905483058</v>
+        <v>-0</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.03647425854706376</v>
+        <v>0.03053373606623519</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0</v>
+        <v>-0.08872361538481742</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.3593675073590822</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.1202013500057954</v>
+        <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>-0.02268913547697213</v>
+        <v>-0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.09474379317591258</v>
+        <v>0.07021188671607284</v>
       </c>
       <c r="AY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>-0.1421243878149263</v>
       </c>
       <c r="BA10" t="n">
         <v>-0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
         <v>-0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.03948908518885419</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.05039983109868428</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0.0513738383853246</v>
+        <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.04954429982877593</v>
+        <v>-0.05032996804159538</v>
       </c>
       <c r="BH10" t="n">
         <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0</v>
+        <v>-0.08829291876180481</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK10" t="n">
         <v>0</v>
@@ -5748,49 +5748,49 @@
         <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.03217808466230792</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0.07968505379818336</v>
+        <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0.0425448479345537</v>
+        <v>-0</v>
       </c>
       <c r="BP10" t="n">
-        <v>-0.08787725819999341</v>
+        <v>0.1720644772011463</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR10" t="n">
-        <v>0</v>
+        <v>0.04947839128446527</v>
       </c>
       <c r="BS10" t="n">
         <v>-0</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>0.1175965335235025</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.07028585504500544</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>-0.003714554408204033</v>
+        <v>-0</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.01003545230283244</v>
+        <v>0.01855855689146976</v>
       </c>
       <c r="BZ10" t="n">
         <v>0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0.08694323786912121</v>
       </c>
       <c r="CB10" t="n">
         <v>-0</v>
@@ -5799,133 +5799,133 @@
         <v>-0</v>
       </c>
       <c r="CD10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.07176028832982231</v>
       </c>
       <c r="CF10" t="n">
-        <v>-0.04157163345873896</v>
+        <v>-0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.03570518705296797</v>
+        <v>-0</v>
       </c>
       <c r="CH10" t="n">
-        <v>-0.02904038324258537</v>
+        <v>0.03273087617294767</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>-0</v>
+        <v>0.04739165200533413</v>
       </c>
       <c r="CK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL10" t="n">
         <v>-0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.1429192768740613</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.03760166811938444</v>
+        <v>-0</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.02390489773569289</v>
+        <v>-0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.005320119792673822</v>
+        <v>-0.06991142460488214</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>-0</v>
+        <v>-0.04686990460822364</v>
       </c>
       <c r="CT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.05399582869366481</v>
       </c>
       <c r="CX10" t="n">
-        <v>-0.04033925981976786</v>
+        <v>0</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.0302025038765825</v>
+        <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.01030385297935044</v>
+        <v>0.02815143962453354</v>
       </c>
       <c r="DA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB10" t="n">
-        <v>0</v>
+        <v>0.04634344306022908</v>
       </c>
       <c r="DC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD10" t="n">
         <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>-0</v>
+        <v>-0.2186637431555521</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0.02165985793387031</v>
+        <v>-0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0.03186151754862864</v>
+        <v>0</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.07212767995172525</v>
+        <v>0.05967342391631554</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK10" t="n">
-        <v>0</v>
+        <v>-0.01983284543265945</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM10" t="n">
         <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO10" t="n">
-        <v>-0</v>
+        <v>-0.007010996204414117</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.05996086999262882</v>
+        <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.006537354993178396</v>
+        <v>-0</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.09366869064262312</v>
+        <v>0.0457011479805482</v>
       </c>
       <c r="DS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT10" t="n">
-        <v>-0</v>
+        <v>-0.03264941202275405</v>
       </c>
       <c r="DU10" t="n">
         <v>0</v>
@@ -5934,52 +5934,52 @@
         <v>-0</v>
       </c>
       <c r="DW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>0.09832486955054166</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.06294813592865106</v>
+        <v>-0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.02940380766494679</v>
+        <v>-0</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.006591421303433279</v>
+        <v>-0.05632171611471885</v>
       </c>
       <c r="EB10" t="n">
         <v>0</v>
       </c>
       <c r="EC10" t="n">
-        <v>0</v>
+        <v>0.02575850438193266</v>
       </c>
       <c r="ED10" t="n">
         <v>0</v>
       </c>
       <c r="EE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.02333140949470254</v>
       </c>
       <c r="EH10" t="n">
-        <v>-0.05507057110427072</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.06136830524787389</v>
+        <v>-0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.04142608180586541</v>
+        <v>0.05550733184227665</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL10" t="n">
-        <v>-0</v>
+        <v>0.04886327960939023</v>
       </c>
       <c r="EM10" t="n">
         <v>-0</v>
@@ -5988,55 +5988,55 @@
         <v>-0</v>
       </c>
       <c r="EO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>-0.02971580743030945</v>
       </c>
       <c r="EQ10" t="n">
-        <v>-0.02093077064814644</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0.01016982240554568</v>
+        <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.009948055062075077</v>
+        <v>0.0364389841099767</v>
       </c>
       <c r="ET10" t="n">
         <v>0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0</v>
+        <v>0.03256612396686034</v>
       </c>
       <c r="EV10" t="n">
         <v>-0</v>
       </c>
       <c r="EW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.064220509306031</v>
       </c>
       <c r="EZ10" t="n">
-        <v>-0.03658973281079156</v>
+        <v>-0</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.03429479714117827</v>
+        <v>-0</v>
       </c>
       <c r="FB10" t="n">
-        <v>-0.01850478019214865</v>
+        <v>0.03777303542492122</v>
       </c>
       <c r="FC10" t="n">
         <v>-0</v>
       </c>
       <c r="FD10" t="n">
-        <v>-0</v>
+        <v>0.03420764371482514</v>
       </c>
       <c r="FE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF10" t="n">
         <v>-0</v>
@@ -6045,79 +6045,79 @@
         <v>-0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>-0.02042340758147201</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0.03295592659418195</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0.002646230114355556</v>
+        <v>0</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.002891191311307771</v>
+        <v>-0.1036332821659217</v>
       </c>
       <c r="FL10" t="n">
         <v>-0</v>
       </c>
       <c r="FM10" t="n">
-        <v>-0</v>
+        <v>0.06614310036605796</v>
       </c>
       <c r="FN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>-0</v>
+        <v>-0.005871493921728364</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.002007702015509643</v>
+        <v>0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0.0207107541394847</v>
+        <v>-0</v>
       </c>
       <c r="FT10" t="n">
-        <v>-9.408552954605989e-05</v>
+        <v>0.006455618386448165</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV10" t="n">
-        <v>-0</v>
+        <v>0.04970448626052981</v>
       </c>
       <c r="FW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX10" t="n">
         <v>-0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>-0</v>
+        <v>-0.0758729608431695</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.04759874726650624</v>
+        <v>0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.01703088160063126</v>
+        <v>-0</v>
       </c>
       <c r="GC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD10" t="n">
         <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>0.125604245066121</v>
       </c>
       <c r="GF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG10" t="n">
         <v>0</v>
@@ -6125,19 +6125,19 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.4455748330750715</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2532664216682239</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.007271939290531122</v>
+        <v>-0.09724062926093466</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -6146,106 +6146,106 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.129751475007929</v>
+        <v>-0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-0.2308289338686006</v>
       </c>
       <c r="J11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.3241167543651432</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2531788645973414</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.03663439414644937</v>
+        <v>-0.1375868134705606</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1493910376497354</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>-0.2488413136462798</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.1778425223659343</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.01795019162188243</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.04367844594533331</v>
+        <v>0.07252730989160019</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.077050848536856</v>
+        <v>-0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>-0.06564064848131686</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>0.1802897194045926</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.008099299456783657</v>
+        <v>-0</v>
       </c>
       <c r="AE11" t="n">
         <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.03752898646803009</v>
+        <v>-0.05445466802930047</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH11" t="n">
         <v>-0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.01292059576904875</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0.01130092615466017</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0</v>
+        <v>0.1017375521504815</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.0687265263956176</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.08286136652297987</v>
+        <v>0.03211900870365894</v>
       </c>
       <c r="AP11" t="n">
         <v>0</v>
@@ -6254,25 +6254,25 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0.03329431501811826</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>-0.02817387933415013</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0</v>
+        <v>0.5743588276717405</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.1545390093796854</v>
+        <v>-0</v>
       </c>
       <c r="AW11" t="n">
         <v>-0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.03423269943455964</v>
+        <v>0.1593362124157635</v>
       </c>
       <c r="AY11" t="n">
         <v>0</v>
@@ -6281,25 +6281,25 @@
         <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>-0.1451334315733577</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>-0.160510241804709</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>0.02896098931520412</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.06897205955674537</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
         <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.0413637395426151</v>
+        <v>-0.1353084827021165</v>
       </c>
       <c r="BH11" t="n">
         <v>0</v>
@@ -6308,349 +6308,349 @@
         <v>-0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>-0.05414856941827541</v>
+        <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>0</v>
+        <v>-0.09763271430333333</v>
       </c>
       <c r="BL11" t="n">
         <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>-0.01580162219568594</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0.06680362491783114</v>
+        <v>-0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>-0.0595514979277524</v>
+        <v>0.1635777822005112</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR11" t="n">
         <v>-0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.07254992745038363</v>
+        <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>-0</v>
+        <v>0.009774155310051857</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>0.2982230561597482</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.09855326566272746</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
         <v>-0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.01205726516758308</v>
+        <v>0.07659603877682787</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA11" t="n">
         <v>0</v>
       </c>
       <c r="CB11" t="n">
-        <v>-0.06431631654110542</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
-        <v>0</v>
+        <v>-0.04912186303906273</v>
       </c>
       <c r="CD11" t="n">
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>-0</v>
+        <v>-0.1220823420477336</v>
       </c>
       <c r="CF11" t="n">
-        <v>-0.07428579449168896</v>
+        <v>-0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>-0.006750130844835565</v>
+        <v>0.001127506267037298</v>
       </c>
       <c r="CI11" t="n">
         <v>-0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.03200867674895831</v>
+        <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>-0</v>
+        <v>0.08590252197647293</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>-0</v>
+        <v>-0.1223337703651036</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.03505477632536479</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.09600345811160849</v>
+        <v>-0.1712786574668426</v>
       </c>
       <c r="CR11" t="n">
         <v>0</v>
       </c>
       <c r="CS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.05109934217841854</v>
+        <v>-0</v>
       </c>
       <c r="CU11" t="n">
-        <v>0</v>
+        <v>0.004119869286127911</v>
       </c>
       <c r="CV11" t="n">
         <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>0</v>
+        <v>-0.112211203521746</v>
       </c>
       <c r="CX11" t="n">
-        <v>-0.07054427907754207</v>
+        <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.02690396611758344</v>
+        <v>0.003346368706697547</v>
       </c>
       <c r="DA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.02470942357709066</v>
+        <v>-0</v>
       </c>
       <c r="DD11" t="n">
-        <v>0</v>
+        <v>0.06542903966920914</v>
       </c>
       <c r="DE11" t="n">
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>-0.2692720260715941</v>
       </c>
       <c r="DG11" t="n">
-        <v>-0.04854812352341421</v>
+        <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.001321120620305705</v>
+        <v>0.08987566310988837</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.04817046188919061</v>
+        <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>0</v>
+        <v>-0.04029221562578318</v>
       </c>
       <c r="DN11" t="n">
         <v>0</v>
       </c>
       <c r="DO11" t="n">
-        <v>-0</v>
+        <v>0.004975079006561786</v>
       </c>
       <c r="DP11" t="n">
-        <v>-0.01314457871605744</v>
+        <v>0</v>
       </c>
       <c r="DQ11" t="n">
         <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.01571769454830483</v>
+        <v>-0.02656012849531851</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT11" t="n">
         <v>0</v>
       </c>
       <c r="DU11" t="n">
-        <v>-0.03023472717815566</v>
+        <v>0</v>
       </c>
       <c r="DV11" t="n">
-        <v>0</v>
+        <v>-0.005760298206532577</v>
       </c>
       <c r="DW11" t="n">
         <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0</v>
+        <v>0.1173781541030796</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.03959071867976771</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.004396249803023701</v>
+        <v>-0.02040877321491244</v>
       </c>
       <c r="EB11" t="n">
         <v>-0</v>
       </c>
       <c r="EC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.05967177836796178</v>
+        <v>-0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0</v>
+        <v>0.02089302542389034</v>
       </c>
       <c r="EF11" t="n">
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0</v>
+        <v>-0.02444615292679015</v>
       </c>
       <c r="EH11" t="n">
-        <v>-0.06850186882010767</v>
+        <v>0</v>
       </c>
       <c r="EI11" t="n">
         <v>0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.05465199160383204</v>
+        <v>0.01168185906914874</v>
       </c>
       <c r="EK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.05866987962618643</v>
+        <v>0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0</v>
+        <v>0.1217655965465076</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>-0</v>
+        <v>-0.09339807308311356</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.001408494312053802</v>
+        <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.02963511353275632</v>
+        <v>0.01977529898042384</v>
       </c>
       <c r="ET11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU11" t="n">
         <v>0</v>
       </c>
       <c r="EV11" t="n">
-        <v>-0.006847818268103264</v>
+        <v>-0</v>
       </c>
       <c r="EW11" t="n">
-        <v>-0</v>
+        <v>0.0003655899560750315</v>
       </c>
       <c r="EX11" t="n">
         <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>-0.1286442919128734</v>
       </c>
       <c r="EZ11" t="n">
-        <v>-0.07662322923735923</v>
+        <v>-0</v>
       </c>
       <c r="FA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.01159929750522904</v>
+        <v>-0.01541905363081584</v>
       </c>
       <c r="FC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.03788305771942457</v>
+        <v>-0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0.05715199691508521</v>
       </c>
       <c r="FG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0</v>
+        <v>-0.09905271829711042</v>
       </c>
       <c r="FI11" t="n">
-        <v>-0.06764170305895853</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.02583933647434008</v>
+        <v>-0.05784149357419523</v>
       </c>
       <c r="FL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.01273562943487465</v>
+        <v>0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0</v>
+        <v>-0.05628812282743786</v>
       </c>
       <c r="FP11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>-0</v>
+        <v>-0.0165881721947123</v>
       </c>
       <c r="FR11" t="n">
-        <v>-0.01315776551740324</v>
+        <v>0</v>
       </c>
       <c r="FS11" t="n">
         <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>-9.643841496216588e-05</v>
+        <v>-0.008102099971654579</v>
       </c>
       <c r="FU11" t="n">
         <v>-0</v>
@@ -6659,37 +6659,37 @@
         <v>-0</v>
       </c>
       <c r="FW11" t="n">
-        <v>-0.004907457139622922</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0.01408669996251717</v>
       </c>
       <c r="FY11" t="n">
         <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>-0</v>
+        <v>-0.1345992625993349</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.01551235922774307</v>
+        <v>0</v>
       </c>
       <c r="GB11" t="n">
         <v>-0</v>
       </c>
       <c r="GC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.02773446463320692</v>
+        <v>0</v>
       </c>
       <c r="GG11" t="n">
-        <v>0</v>
+        <v>-0.02360812263165026</v>
       </c>
     </row>
     <row r="12">
@@ -6697,10 +6697,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -6724,10 +6724,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -6751,10 +6751,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -6778,10 +6778,10 @@
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
@@ -6805,10 +6805,10 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
         <v>0</v>
@@ -6832,10 +6832,10 @@
         <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
         <v>0</v>
@@ -6859,10 +6859,10 @@
         <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
         <v>0</v>
@@ -6886,10 +6886,10 @@
         <v>0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
         <v>0</v>
@@ -6913,10 +6913,10 @@
         <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
         <v>0</v>
@@ -6940,10 +6940,10 @@
         <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
         <v>0</v>
@@ -6967,10 +6967,10 @@
         <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP12" t="n">
         <v>0</v>
@@ -7021,10 +7021,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -7048,10 +7048,10 @@
         <v>0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
         <v>0</v>
@@ -7102,10 +7102,10 @@
         <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI12" t="n">
         <v>0</v>
@@ -7129,10 +7129,10 @@
         <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
         <v>0</v>
@@ -7156,10 +7156,10 @@
         <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
         <v>0</v>
@@ -7183,10 +7183,10 @@
         <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ12" t="n">
         <v>0</v>
@@ -7210,10 +7210,10 @@
         <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS12" t="n">
         <v>0</v>
@@ -7263,22 +7263,22 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.5907795004285801</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2810739610430443</v>
+        <v>-0.3989518623425137</v>
       </c>
       <c r="D13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07468182212796116</v>
+        <v>-0.09252403475631246</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3184507130754339</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>-0</v>
@@ -7290,25 +7290,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.5050626613200868</v>
       </c>
       <c r="L13" t="n">
-        <v>0.290076891263265</v>
+        <v>-0.3262444670309252</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.07110719060499318</v>
+        <v>-0.2854567558636711</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.3783222299493106</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q13" t="n">
         <v>-0</v>
@@ -7320,22 +7320,22 @@
         <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.1897807471320398</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.003857328212201811</v>
+        <v>-0.02029988754024378</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.07451299862831895</v>
+        <v>0.05652242697967574</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.1589817010875808</v>
+        <v>-0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -7344,76 +7344,76 @@
         <v>-0</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>0.1870684611749188</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.02251778094151074</v>
+        <v>0.02204934376175902</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.2683260114580653</v>
+        <v>0.08347761226110914</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.05208131250905261</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
         <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
         <v>-0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>0.2841163628792014</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.1459767979267785</v>
+        <v>-0.05471824795404803</v>
       </c>
       <c r="AN13" t="n">
         <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.09651969526532232</v>
+        <v>-0.03370583471837622</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0.06118917332624629</v>
+        <v>0</v>
       </c>
       <c r="AQ13" t="n">
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
         <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>0.594231962697403</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.1929527616116958</v>
+        <v>-0.2836455096055909</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.1642481606667897</v>
+        <v>0.0448668381595007</v>
       </c>
       <c r="AY13" t="n">
-        <v>-0.1413506520278122</v>
+        <v>0</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
@@ -7422,28 +7422,28 @@
         <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC13" t="n">
         <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.08768484298742456</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.003836615947030705</v>
+        <v>-0.1961871347644716</v>
       </c>
       <c r="BF13" t="n">
         <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.06933020131478318</v>
+        <v>-0.2311621508018974</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0.1295991812517192</v>
+        <v>0</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ13" t="n">
         <v>-0</v>
@@ -7455,22 +7455,22 @@
         <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>0.07998463931774845</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0.03620514576831815</v>
+        <v>-0.1097685112961139</v>
       </c>
       <c r="BO13" t="n">
         <v>0</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.09419869594363907</v>
+        <v>0.1815055184834277</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.03601642287755601</v>
+        <v>-0</v>
       </c>
       <c r="BR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS13" t="n">
         <v>-0</v>
@@ -7482,49 +7482,49 @@
         <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>0.2913806926080225</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.1133784274733111</v>
+        <v>-0.3333410508698076</v>
       </c>
       <c r="BX13" t="n">
         <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.006435217689937268</v>
+        <v>0.04983374037369032</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0.2361078207854126</v>
+        <v>-0</v>
       </c>
       <c r="CA13" t="n">
         <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC13" t="n">
         <v>-0</v>
       </c>
       <c r="CD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>-0.1457715073897463</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0.07484256055555147</v>
+        <v>0.02825468931812659</v>
       </c>
       <c r="CG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.02972288620864152</v>
+        <v>0.04169400559116405</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.07700187793059661</v>
+        <v>-0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK13" t="n">
         <v>0</v>
@@ -7536,22 +7536,22 @@
         <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>-0</v>
+        <v>-0.01343093360960241</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.119640238268007</v>
+        <v>0.004829513798193239</v>
       </c>
       <c r="CP13" t="n">
         <v>-0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.1519193211622611</v>
+        <v>0.1020621569983537</v>
       </c>
       <c r="CR13" t="n">
-        <v>-0.0253699657184176</v>
+        <v>-0</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
         <v>-0</v>
@@ -7560,76 +7560,76 @@
         <v>0</v>
       </c>
       <c r="CV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>-0</v>
+        <v>-0.1113453844271666</v>
       </c>
       <c r="CX13" t="n">
-        <v>-0.06344750643191692</v>
+        <v>0.023447008917863</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.01026727349889076</v>
+        <v>0.01852341139202471</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.07498241080653946</v>
+        <v>0</v>
       </c>
       <c r="DB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC13" t="n">
         <v>-0</v>
       </c>
       <c r="DD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE13" t="n">
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0.1390887419599823</v>
       </c>
       <c r="DG13" t="n">
-        <v>-0.07143992978348984</v>
+        <v>-0.03086037292576049</v>
       </c>
       <c r="DH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.08233825420855641</v>
+        <v>-0.08493861221327145</v>
       </c>
       <c r="DJ13" t="n">
-        <v>-0.09182627602306644</v>
+        <v>0</v>
       </c>
       <c r="DK13" t="n">
         <v>0</v>
       </c>
       <c r="DL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0.03764789556508622</v>
       </c>
       <c r="DP13" t="n">
-        <v>-0.03082413019793589</v>
+        <v>0.01780961237692205</v>
       </c>
       <c r="DQ13" t="n">
         <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>-0.01072077897872908</v>
+        <v>0.008507041442613095</v>
       </c>
       <c r="DS13" t="n">
-        <v>-0.03151832285059498</v>
+        <v>-0</v>
       </c>
       <c r="DT13" t="n">
         <v>0</v>
@@ -7641,22 +7641,22 @@
         <v>0</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0</v>
+        <v>0.06126441155205174</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.0142451759953011</v>
+        <v>-0.08511085627849853</v>
       </c>
       <c r="DZ13" t="n">
         <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.08428996896995108</v>
+        <v>-0.0374450718513996</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.01276386600925839</v>
+        <v>0</v>
       </c>
       <c r="EC13" t="n">
         <v>0</v>
@@ -7671,46 +7671,46 @@
         <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0.04720303651469306</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0.07849760387473505</v>
+        <v>0.009759931043592501</v>
       </c>
       <c r="EI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.02590268621072637</v>
+        <v>0.07792833050205475</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.1350152741198217</v>
+        <v>-0</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>-0</v>
+        <v>-0.04595661248020445</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.008233349249748364</v>
+        <v>-0.1106715498472844</v>
       </c>
       <c r="ER13" t="n">
         <v>0</v>
       </c>
       <c r="ES13" t="n">
-        <v>-0.02856762528844236</v>
+        <v>0.09452568183755154</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.13287069536186</v>
+        <v>-0</v>
       </c>
       <c r="EU13" t="n">
         <v>-0</v>
@@ -7725,79 +7725,79 @@
         <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0.122824575399272</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0.06743862426604375</v>
+        <v>0.01994690641237671</v>
       </c>
       <c r="FA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>-0.01255942941711029</v>
+        <v>0.051329521421728</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.05890484294103285</v>
+        <v>-0</v>
       </c>
       <c r="FD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE13" t="n">
         <v>0</v>
       </c>
       <c r="FF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH13" t="n">
-        <v>0</v>
+        <v>-0.1029617169823601</v>
       </c>
       <c r="FI13" t="n">
-        <v>-0.06982380010204016</v>
+        <v>-0.1329469674295655</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.02379995181814152</v>
+        <v>-0.1432798239022791</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.006459018238354013</v>
+        <v>0</v>
       </c>
       <c r="FM13" t="n">
         <v>0</v>
       </c>
       <c r="FN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO13" t="n">
         <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>-0</v>
+        <v>-0.000766764666897827</v>
       </c>
       <c r="FR13" t="n">
-        <v>-0.001092208943337217</v>
+        <v>0.05550624530852524</v>
       </c>
       <c r="FS13" t="n">
         <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.004789602261570691</v>
+        <v>-0.01517693923645303</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.04200454634881917</v>
+        <v>-0</v>
       </c>
       <c r="FV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX13" t="n">
         <v>-0</v>
@@ -7806,10 +7806,10 @@
         <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0</v>
+        <v>0.06162526306120281</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.01564629955729201</v>
+        <v>0.01277318649842005</v>
       </c>
       <c r="GB13" t="n">
         <v>-0</v>
@@ -7818,7 +7818,7 @@
         <v>-0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0.0461973925433885</v>
+        <v>-0</v>
       </c>
       <c r="GE13" t="n">
         <v>-0</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="GG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14">
@@ -7835,124 +7835,124 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0.5025994176302351</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2549464183111108</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01952662972783686</v>
+        <v>-0.03234233613095101</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1184774792430794</v>
+        <v>-0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-0.3243190074281432</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.3543559262263809</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2670624693915981</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0005041131992289206</v>
+        <v>-0.0727056060268471</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1133339678422343</v>
+        <v>-0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>-0.2544294435558138</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.1131928689981723</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.00781064483253156</v>
+        <v>-0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.05204299303002242</v>
+        <v>0.006154694897210576</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.07333150369116923</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0</v>
+        <v>-0.07613652471431498</v>
       </c>
       <c r="AB14" t="n">
         <v>-0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>0.1703138451986171</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.02496919752861381</v>
+        <v>-0</v>
       </c>
       <c r="AE14" t="n">
         <v>-0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.06480203664718358</v>
+        <v>-0.04153114115060682</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
         <v>-0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.04910785791479483</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-0</v>
+        <v>-0.02424773754708348</v>
       </c>
       <c r="AK14" t="n">
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0</v>
+        <v>0.09552635091293049</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.0615910609297504</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
         <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.1056664166923952</v>
+        <v>-0.0005930179846301423</v>
       </c>
       <c r="AP14" t="n">
         <v>0</v>
@@ -7961,376 +7961,376 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.02059702028836454</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0</v>
+        <v>-0.07882455555996977</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0</v>
+        <v>0.4523337567415014</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.119048021149821</v>
+        <v>-0</v>
       </c>
       <c r="AW14" t="n">
         <v>-0</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.02831585520173195</v>
+        <v>0.1517605598065375</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ14" t="n">
         <v>0</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0.1534707973016705</v>
+        <v>-0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>-0.1404093262725181</v>
       </c>
       <c r="BC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>0.07501628806493117</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.0677330856162988</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
         <v>0</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.05403463451613667</v>
+        <v>-0.1799295426076874</v>
       </c>
       <c r="BH14" t="n">
         <v>0</v>
       </c>
       <c r="BI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0.04027759948730547</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>0</v>
+        <v>-0.17491429587882</v>
       </c>
       <c r="BL14" t="n">
         <v>-0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>0.01855901654884917</v>
       </c>
       <c r="BN14" t="n">
-        <v>-0.06010149969811356</v>
+        <v>-0</v>
       </c>
       <c r="BO14" t="n">
         <v>0</v>
       </c>
       <c r="BP14" t="n">
-        <v>-0.07022995997687036</v>
+        <v>0.15363148965093</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR14" t="n">
         <v>-0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.06948188234749887</v>
+        <v>-0</v>
       </c>
       <c r="BT14" t="n">
-        <v>0</v>
+        <v>-0.01282564579733253</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>0.2584867140468766</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.08927991683783863</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.004616590270178291</v>
+        <v>0.06779278497354253</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA14" t="n">
         <v>0</v>
       </c>
       <c r="CB14" t="n">
-        <v>-0.04504463006408451</v>
+        <v>-0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0</v>
+        <v>-0.05439368754766404</v>
       </c>
       <c r="CD14" t="n">
         <v>-0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0</v>
+        <v>-0.1063051417888271</v>
       </c>
       <c r="CF14" t="n">
-        <v>-0.06226271954817156</v>
+        <v>-0</v>
       </c>
       <c r="CG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH14" t="n">
-        <v>-0.0003548829326435746</v>
+        <v>-0.0123999375250363</v>
       </c>
       <c r="CI14" t="n">
         <v>-0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.01825002591043126</v>
+        <v>0</v>
       </c>
       <c r="CL14" t="n">
-        <v>-0</v>
+        <v>0.08241951422047439</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>-0</v>
+        <v>-0.06478893541454656</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.03934576782265674</v>
+        <v>-0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.06458907914323792</v>
+        <v>-0.04621327902943281</v>
       </c>
       <c r="CR14" t="n">
         <v>0</v>
       </c>
       <c r="CS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.01368999778883443</v>
+        <v>-0</v>
       </c>
       <c r="CU14" t="n">
-        <v>0</v>
+        <v>-0.02343245301141927</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW14" t="n">
-        <v>-0</v>
+        <v>-0.09414416943103228</v>
       </c>
       <c r="CX14" t="n">
-        <v>-0.06346060381389163</v>
+        <v>-0</v>
       </c>
       <c r="CY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.01353053599365075</v>
+        <v>-0.01914849684373003</v>
       </c>
       <c r="DA14" t="n">
         <v>0</v>
       </c>
       <c r="DB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.0171183504719948</v>
+        <v>0</v>
       </c>
       <c r="DD14" t="n">
-        <v>-0</v>
+        <v>0.07504276223898444</v>
       </c>
       <c r="DE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0.1182261744395655</v>
       </c>
       <c r="DG14" t="n">
-        <v>-0.01040309217142933</v>
+        <v>-0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI14" t="n">
-        <v>-0.06883132017007558</v>
+        <v>0.05412685565158881</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK14" t="n">
         <v>0</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.04240308226174935</v>
+        <v>-0</v>
       </c>
       <c r="DM14" t="n">
-        <v>0</v>
+        <v>0.03219904337586417</v>
       </c>
       <c r="DN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0.01423163962202957</v>
       </c>
       <c r="DP14" t="n">
-        <v>-0.01090632486849035</v>
+        <v>0</v>
       </c>
       <c r="DQ14" t="n">
         <v>-0</v>
       </c>
       <c r="DR14" t="n">
-        <v>-0.004206438151719307</v>
+        <v>0.006994885417896802</v>
       </c>
       <c r="DS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT14" t="n">
         <v>0</v>
       </c>
       <c r="DU14" t="n">
-        <v>-0.02370140160106454</v>
+        <v>0</v>
       </c>
       <c r="DV14" t="n">
-        <v>0</v>
+        <v>-0.02374782169982614</v>
       </c>
       <c r="DW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>0</v>
+        <v>0.07353167572043219</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.03914361093710002</v>
+        <v>0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.03085257597916232</v>
+        <v>-0.04227195418086139</v>
       </c>
       <c r="EB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.0106770507511172</v>
+        <v>-0</v>
       </c>
       <c r="EE14" t="n">
-        <v>-0</v>
+        <v>0.02796226645634012</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0.03077529897577023</v>
       </c>
       <c r="EH14" t="n">
-        <v>-0.06224687037527939</v>
+        <v>0</v>
       </c>
       <c r="EI14" t="n">
         <v>0</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.0259420579919823</v>
+        <v>-0.0004336784504817793</v>
       </c>
       <c r="EK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.02783121019871664</v>
+        <v>0</v>
       </c>
       <c r="EN14" t="n">
-        <v>0</v>
+        <v>0.1036915773196381</v>
       </c>
       <c r="EO14" t="n">
         <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>-0.1056797150948331</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0.005664570878348319</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.0314839536192492</v>
+        <v>-0.03259428197368409</v>
       </c>
       <c r="ET14" t="n">
         <v>-0</v>
       </c>
       <c r="EU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.006498673983114299</v>
+        <v>-0</v>
       </c>
       <c r="EW14" t="n">
-        <v>0</v>
+        <v>-0.04756516615355748</v>
       </c>
       <c r="EX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0</v>
+        <v>-0.1178670650332119</v>
       </c>
       <c r="EZ14" t="n">
-        <v>-0.06792407158988198</v>
+        <v>-0</v>
       </c>
       <c r="FA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.0004861198542076317</v>
+        <v>-0.02715481701731032</v>
       </c>
       <c r="FC14" t="n">
         <v>-0</v>
       </c>
       <c r="FD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.01908595671669919</v>
+        <v>-0</v>
       </c>
       <c r="FF14" t="n">
-        <v>-0</v>
+        <v>0.0646619709015803</v>
       </c>
       <c r="FG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH14" t="n">
-        <v>-0</v>
+        <v>-0.06191831366897853</v>
       </c>
       <c r="FI14" t="n">
-        <v>-0.05472559931766342</v>
+        <v>-0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.03216685378078509</v>
+        <v>-0.055576272012112</v>
       </c>
       <c r="FL14" t="n">
         <v>0</v>
@@ -8339,81 +8339,81 @@
         <v>0</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.02189869014475254</v>
+        <v>0</v>
       </c>
       <c r="FO14" t="n">
-        <v>-0</v>
+        <v>0.02139657467474632</v>
       </c>
       <c r="FP14" t="n">
         <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>-0</v>
+        <v>-0.00148086181662483</v>
       </c>
       <c r="FR14" t="n">
-        <v>-0.0024589659694091</v>
+        <v>-0</v>
       </c>
       <c r="FS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FT14" t="n">
-        <v>-0.0006949452012371504</v>
+        <v>0.000504162863575076</v>
       </c>
       <c r="FU14" t="n">
         <v>-0</v>
       </c>
       <c r="FV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.01610433978873493</v>
+        <v>-0</v>
       </c>
       <c r="FX14" t="n">
-        <v>-0</v>
+        <v>0.01357506348458504</v>
       </c>
       <c r="FY14" t="n">
         <v>-0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>-0</v>
+        <v>-0.05419168035346556</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.01801932364483579</v>
+        <v>0</v>
       </c>
       <c r="GB14" t="n">
         <v>-0</v>
       </c>
       <c r="GC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE14" t="n">
         <v>-0</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.05054217002563871</v>
+        <v>0</v>
       </c>
       <c r="GG14" t="n">
-        <v>0</v>
+        <v>0.005116448674482819</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>-0.1450283934898477</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2272670160233379</v>
+        <v>0.3062561047424777</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4374785793808934</v>
+        <v>-0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.02945845956471287</v>
+        <v>0.004364620054611141</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -8422,58 +8422,58 @@
         <v>-0</v>
       </c>
       <c r="H15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>-0.1332743239940226</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.2450569103089743</v>
+        <v>0.2873678197897083</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4961396473381582</v>
+        <v>-0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.02986212177029565</v>
+        <v>-0.08368245261017246</v>
       </c>
       <c r="O15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.005902332190468476</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.1478119969489917</v>
+        <v>0.1031246008266935</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09704544680200124</v>
+        <v>-0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.07237079413433088</v>
+        <v>0.05699720229877055</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -8482,22 +8482,22 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0</v>
+        <v>0.02586191543692579</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.1353968952702611</v>
+        <v>0.1138783956977097</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.07499217272294589</v>
+        <v>-0</v>
       </c>
       <c r="AE15" t="n">
         <v>-0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.0001317613966663639</v>
+        <v>0.01371311578678623</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
         <v>-0</v>
@@ -8509,19 +8509,19 @@
         <v>-0</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>-0.01677649799122805</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0.08030241180807023</v>
+        <v>0.07775943758745023</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.1130932950903111</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.02123723272388232</v>
+        <v>0.05098910888926177</v>
       </c>
       <c r="AP15" t="n">
         <v>0</v>
@@ -8533,55 +8533,55 @@
         <v>-0</v>
       </c>
       <c r="AS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>-0.0239761537076614</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0.2354199228534452</v>
+        <v>0.2680415258520715</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.1193175625004592</v>
+        <v>-0</v>
       </c>
       <c r="AW15" t="n">
         <v>-0</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.1212823594473348</v>
+        <v>0.2275944397392204</v>
       </c>
       <c r="AY15" t="n">
         <v>-0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC15" t="n">
-        <v>-0</v>
+        <v>-0.06963962924390511</v>
       </c>
       <c r="BD15" t="n">
-        <v>-0.1001327325234839</v>
+        <v>0.01245205525493021</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.147613818274802</v>
+        <v>0</v>
       </c>
       <c r="BF15" t="n">
         <v>0</v>
       </c>
       <c r="BG15" t="n">
-        <v>-0.1527035522146895</v>
+        <v>-0.1533763950412602</v>
       </c>
       <c r="BH15" t="n">
         <v>0</v>
       </c>
       <c r="BI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ15" t="n">
         <v>0</v>
@@ -8590,22 +8590,22 @@
         <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0</v>
+        <v>-0.06101163327465105</v>
       </c>
       <c r="BM15" t="n">
-        <v>-0.005055877588540454</v>
+        <v>-0.02274610606011445</v>
       </c>
       <c r="BN15" t="n">
-        <v>-0.113135784867833</v>
+        <v>-0</v>
       </c>
       <c r="BO15" t="n">
         <v>-0</v>
       </c>
       <c r="BP15" t="n">
-        <v>-0.07397807727292621</v>
+        <v>0.01391576317500381</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR15" t="n">
         <v>-0</v>
@@ -8614,82 +8614,82 @@
         <v>-0</v>
       </c>
       <c r="BT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU15" t="n">
-        <v>0</v>
+        <v>0.01501444647920728</v>
       </c>
       <c r="BV15" t="n">
-        <v>-0.0902965642807888</v>
+        <v>0.1683472121580763</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.1947022637250677</v>
+        <v>0</v>
       </c>
       <c r="BX15" t="n">
         <v>-0</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.005432986380287303</v>
+        <v>0.0507792668290547</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA15" t="n">
         <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC15" t="n">
         <v>0</v>
       </c>
       <c r="CD15" t="n">
-        <v>0</v>
+        <v>0.04000007307173718</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.06028592031002845</v>
+        <v>-0.05453818036973004</v>
       </c>
       <c r="CF15" t="n">
-        <v>-0.07405621025934449</v>
+        <v>-0</v>
       </c>
       <c r="CG15" t="n">
         <v>-0</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.005067987645957278</v>
+        <v>-0.03840247409659924</v>
       </c>
       <c r="CI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL15" t="n">
         <v>-0</v>
       </c>
       <c r="CM15" t="n">
-        <v>0</v>
+        <v>-0.03781898321579104</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.01195108236789436</v>
+        <v>-0.01379031628086412</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.09391988992677412</v>
+        <v>-0</v>
       </c>
       <c r="CP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.1021796122159619</v>
+        <v>-0.1213706244010509</v>
       </c>
       <c r="CR15" t="n">
         <v>0</v>
       </c>
       <c r="CS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT15" t="n">
         <v>-0</v>
@@ -8698,52 +8698,52 @@
         <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>-0</v>
+        <v>0.02352082975433117</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.04082525558049114</v>
+        <v>-0.06245390504132654</v>
       </c>
       <c r="CX15" t="n">
-        <v>-0.0824230909854637</v>
+        <v>-0</v>
       </c>
       <c r="CY15" t="n">
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.03100771927363086</v>
+        <v>-0.02894768230131029</v>
       </c>
       <c r="DA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD15" t="n">
         <v>0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0</v>
+        <v>0.03547785053168344</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.1602514597550916</v>
+        <v>-0.09648272798232696</v>
       </c>
       <c r="DG15" t="n">
-        <v>-0.004665905195768773</v>
+        <v>-0</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
       </c>
       <c r="DI15" t="n">
-        <v>-0.02002168087326787</v>
+        <v>-0.007177448380538715</v>
       </c>
       <c r="DJ15" t="n">
         <v>0</v>
       </c>
       <c r="DK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL15" t="n">
         <v>-0</v>
@@ -8752,154 +8752,154 @@
         <v>-0</v>
       </c>
       <c r="DN15" t="n">
-        <v>-0</v>
+        <v>0.02277124310493113</v>
       </c>
       <c r="DO15" t="n">
-        <v>-0.02941598055944519</v>
+        <v>-0.0129358505656151</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.0463417251062918</v>
+        <v>-0</v>
       </c>
       <c r="DQ15" t="n">
         <v>-0</v>
       </c>
       <c r="DR15" t="n">
-        <v>-0.07565480810634741</v>
+        <v>0.04261667835639647</v>
       </c>
       <c r="DS15" t="n">
         <v>-0</v>
       </c>
       <c r="DT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV15" t="n">
         <v>0</v>
       </c>
       <c r="DW15" t="n">
-        <v>-0</v>
+        <v>0.01520493498490725</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.02308610163359964</v>
+        <v>0.0593548273950997</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.05893112336229861</v>
+        <v>0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA15" t="n">
-        <v>-0.04172666456876057</v>
+        <v>0.01296338099423119</v>
       </c>
       <c r="EB15" t="n">
         <v>0</v>
       </c>
       <c r="EC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE15" t="n">
         <v>-0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0</v>
+        <v>-0.01039572169350779</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.07392644286376125</v>
+        <v>0.001263226131389152</v>
       </c>
       <c r="EH15" t="n">
-        <v>-0.06138152793289909</v>
+        <v>-0</v>
       </c>
       <c r="EI15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>-0.03546344454133991</v>
+        <v>-0.02461621833527135</v>
       </c>
       <c r="EK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO15" t="n">
-        <v>0</v>
+        <v>0.0106854152706513</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.1100877343750289</v>
+        <v>-0.1025026239040847</v>
       </c>
       <c r="EQ15" t="n">
-        <v>-0.05508270993010054</v>
+        <v>-0</v>
       </c>
       <c r="ER15" t="n">
         <v>0</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.09939573905938742</v>
+        <v>-0.03902147905849932</v>
       </c>
       <c r="ET15" t="n">
         <v>-0</v>
       </c>
       <c r="EU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW15" t="n">
         <v>-0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0</v>
+        <v>0.02330788700807145</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.02666253509227392</v>
+        <v>-0.0744448865289912</v>
       </c>
       <c r="EZ15" t="n">
-        <v>-0.08832671830849215</v>
+        <v>-0</v>
       </c>
       <c r="FA15" t="n">
         <v>-0</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.0324117233935278</v>
+        <v>-0.06868372175746276</v>
       </c>
       <c r="FC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF15" t="n">
         <v>-0</v>
       </c>
       <c r="FG15" t="n">
-        <v>0</v>
+        <v>0.02140080285614447</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.06548235191931097</v>
+        <v>0.004955464002654584</v>
       </c>
       <c r="FI15" t="n">
-        <v>-0.1228361490225335</v>
+        <v>-0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.03418025449305958</v>
+        <v>-0.06706801856876159</v>
       </c>
       <c r="FL15" t="n">
         <v>-0</v>
@@ -8911,22 +8911,22 @@
         <v>0</v>
       </c>
       <c r="FO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP15" t="n">
-        <v>0</v>
+        <v>0.0864534031141376</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.08441544910400729</v>
+        <v>-0.02326556006440409</v>
       </c>
       <c r="FR15" t="n">
-        <v>-0.00967943357004462</v>
+        <v>-0</v>
       </c>
       <c r="FS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.002215574733197211</v>
+        <v>-0.004870107481667689</v>
       </c>
       <c r="FU15" t="n">
         <v>-0</v>
@@ -8935,25 +8935,25 @@
         <v>-0</v>
       </c>
       <c r="FW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX15" t="n">
         <v>-0</v>
       </c>
       <c r="FY15" t="n">
-        <v>-0</v>
+        <v>-0.0320186217691341</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.02370611076512513</v>
+        <v>-0.0175993094740689</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.1206401352443934</v>
+        <v>-0</v>
       </c>
       <c r="GB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD15" t="n">
         <v>-0</v>
@@ -8965,33 +8965,33 @@
         <v>-0</v>
       </c>
       <c r="GG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B16" t="n">
-        <v>-0</v>
+        <v>0.5070684835287268</v>
       </c>
       <c r="C16" t="n">
-        <v>0.22914642389301</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.119768643350927</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01127623570981798</v>
+        <v>-0.1519953215431933</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0</v>
+        <v>-0.1769548735060516</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -9000,76 +9000,76 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-0</v>
+        <v>0.3430387183262252</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2551347538101287</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.1056718486135906</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1533787370633022</v>
+        <v>-0.1549731854593712</v>
       </c>
       <c r="O16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-0</v>
+        <v>-0.2009485741394578</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.1369897935913975</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03918546446066976</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0.06830263871112745</v>
+        <v>-0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1149263397611568</v>
+        <v>0.125510729472762</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-0.01312121145246103</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB16" t="n">
         <v>-0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>0.1394273036977619</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.001425414246580682</v>
+        <v>-0</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.05720318114591656</v>
+        <v>-0</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.005868837971938669</v>
+        <v>0.06253247594811912</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH16" t="n">
-        <v>-0</v>
+        <v>-0.02575009079944633</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
@@ -9078,82 +9078,82 @@
         <v>-0</v>
       </c>
       <c r="AK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>0.04822317261119883</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.03148142691570212</v>
+        <v>-0</v>
       </c>
       <c r="AN16" t="n">
-        <v>-0.01710711558198565</v>
+        <v>-0</v>
       </c>
       <c r="AO16" t="n">
-        <v>-0.02084590460730125</v>
+        <v>-0.008666941256081645</v>
       </c>
       <c r="AP16" t="n">
         <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>-0.03495606889012583</v>
       </c>
       <c r="AR16" t="n">
         <v>-0</v>
       </c>
       <c r="AS16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT16" t="n">
         <v>-0</v>
       </c>
       <c r="AU16" t="n">
-        <v>-0</v>
+        <v>0.4414688501999068</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.109054377675487</v>
+        <v>-0</v>
       </c>
       <c r="AW16" t="n">
-        <v>-0.02599527577647749</v>
+        <v>-0</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.1074031759365329</v>
+        <v>0.03498103781186453</v>
       </c>
       <c r="AY16" t="n">
         <v>-0</v>
       </c>
       <c r="AZ16" t="n">
-        <v>-0</v>
+        <v>-0.122386106171035</v>
       </c>
       <c r="BA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC16" t="n">
         <v>-0</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>0.100733676612333</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.09668637064175227</v>
+        <v>0</v>
       </c>
       <c r="BF16" t="n">
-        <v>-0.0875396701065216</v>
+        <v>0</v>
       </c>
       <c r="BG16" t="n">
-        <v>-0.05895851963768735</v>
+        <v>-0.05150113679389452</v>
       </c>
       <c r="BH16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI16" t="n">
-        <v>-0</v>
+        <v>-0.08747455111042932</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK16" t="n">
         <v>0</v>
@@ -9162,22 +9162,22 @@
         <v>-0</v>
       </c>
       <c r="BM16" t="n">
-        <v>0</v>
+        <v>0.03325863507546089</v>
       </c>
       <c r="BN16" t="n">
-        <v>-0.04618852641713742</v>
+        <v>0</v>
       </c>
       <c r="BO16" t="n">
-        <v>-0.05134993587770387</v>
+        <v>-0</v>
       </c>
       <c r="BP16" t="n">
-        <v>-0.09151906872601946</v>
+        <v>0.1244404288640718</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR16" t="n">
-        <v>0</v>
+        <v>-0.03947354190521901</v>
       </c>
       <c r="BS16" t="n">
         <v>-0</v>
@@ -9189,184 +9189,184 @@
         <v>-0</v>
       </c>
       <c r="BV16" t="n">
-        <v>0</v>
+        <v>0.2018127536076341</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.05827126447148122</v>
+        <v>0</v>
       </c>
       <c r="BX16" t="n">
-        <v>-0.0507021596832366</v>
+        <v>-0</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.003594716075299669</v>
+        <v>-0.01139150127486592</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA16" t="n">
-        <v>0</v>
+        <v>-0.06301471481279776</v>
       </c>
       <c r="CB16" t="n">
         <v>-0</v>
       </c>
       <c r="CC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE16" t="n">
-        <v>0</v>
+        <v>-0.1078788746939449</v>
       </c>
       <c r="CF16" t="n">
-        <v>-0.04399883130992478</v>
+        <v>-0</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.03750079955933661</v>
+        <v>-0</v>
       </c>
       <c r="CH16" t="n">
-        <v>-0.03687952167357643</v>
+        <v>0.02996560589584826</v>
       </c>
       <c r="CI16" t="n">
         <v>-0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0</v>
+        <v>0.05319002826730744</v>
       </c>
       <c r="CK16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL16" t="n">
         <v>-0</v>
       </c>
       <c r="CM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>0</v>
+        <v>-0.1078420040983675</v>
       </c>
       <c r="CO16" t="n">
-        <v>-0.006940059297519898</v>
+        <v>-0</v>
       </c>
       <c r="CP16" t="n">
-        <v>0.06129650121055338</v>
+        <v>0</v>
       </c>
       <c r="CQ16" t="n">
-        <v>-0.02569257660913728</v>
+        <v>-0.1202469607854581</v>
       </c>
       <c r="CR16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS16" t="n">
-        <v>0</v>
+        <v>0.02886145479119778</v>
       </c>
       <c r="CT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW16" t="n">
-        <v>-0</v>
+        <v>-0.09029384795738359</v>
       </c>
       <c r="CX16" t="n">
-        <v>-0.04444597879533009</v>
+        <v>-0</v>
       </c>
       <c r="CY16" t="n">
-        <v>0.03753001672667871</v>
+        <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>-0.02128341430560061</v>
+        <v>0.02866149027583024</v>
       </c>
       <c r="DA16" t="n">
         <v>0</v>
       </c>
       <c r="DB16" t="n">
-        <v>-0</v>
+        <v>0.03656536726165375</v>
       </c>
       <c r="DC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD16" t="n">
         <v>0</v>
       </c>
       <c r="DE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>0</v>
+        <v>-0.2628776269842755</v>
       </c>
       <c r="DG16" t="n">
-        <v>0.04018963362906428</v>
+        <v>-0</v>
       </c>
       <c r="DH16" t="n">
-        <v>-0.02798866612891078</v>
+        <v>-0</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.06373180498513545</v>
+        <v>0.04319878717753253</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK16" t="n">
-        <v>-0</v>
+        <v>-0.05513804135011058</v>
       </c>
       <c r="DL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN16" t="n">
         <v>-0</v>
       </c>
       <c r="DO16" t="n">
-        <v>-0</v>
+        <v>-0.03104925690354835</v>
       </c>
       <c r="DP16" t="n">
-        <v>0.03713118616522017</v>
+        <v>0</v>
       </c>
       <c r="DQ16" t="n">
-        <v>0.02229651188661981</v>
+        <v>0</v>
       </c>
       <c r="DR16" t="n">
-        <v>-0.1033296036903696</v>
+        <v>0.007103100026380021</v>
       </c>
       <c r="DS16" t="n">
         <v>-0</v>
       </c>
       <c r="DT16" t="n">
-        <v>-0</v>
+        <v>0.02356251419881231</v>
       </c>
       <c r="DU16" t="n">
         <v>-0</v>
       </c>
       <c r="DV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW16" t="n">
         <v>-0</v>
       </c>
       <c r="DX16" t="n">
-        <v>0</v>
+        <v>0.09428272573595585</v>
       </c>
       <c r="DY16" t="n">
-        <v>0.03492457853889042</v>
+        <v>0</v>
       </c>
       <c r="DZ16" t="n">
-        <v>-0.0314176446703688</v>
+        <v>-0</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.0135380712113812</v>
+        <v>-0.06232901063393878</v>
       </c>
       <c r="EB16" t="n">
         <v>0</v>
       </c>
       <c r="EC16" t="n">
-        <v>0</v>
+        <v>-0.02341972319180255</v>
       </c>
       <c r="ED16" t="n">
         <v>0</v>
@@ -9375,133 +9375,133 @@
         <v>-0</v>
       </c>
       <c r="EF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG16" t="n">
-        <v>0</v>
+        <v>-0.07880185137472134</v>
       </c>
       <c r="EH16" t="n">
-        <v>-0.05286268246844156</v>
+        <v>0</v>
       </c>
       <c r="EI16" t="n">
-        <v>0.05408616988604856</v>
+        <v>-0</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0.04910667073278727</v>
+        <v>0.05017273052686625</v>
       </c>
       <c r="EK16" t="n">
         <v>-0</v>
       </c>
       <c r="EL16" t="n">
-        <v>-0</v>
+        <v>0.04341235960728476</v>
       </c>
       <c r="EM16" t="n">
         <v>-0</v>
       </c>
       <c r="EN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP16" t="n">
-        <v>-0</v>
+        <v>-0.03067011551221096</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0.004639480209572721</v>
+        <v>0</v>
       </c>
       <c r="ER16" t="n">
-        <v>0.02100495094279592</v>
+        <v>-0</v>
       </c>
       <c r="ES16" t="n">
-        <v>-0.01726839250294773</v>
+        <v>0.0853738739473147</v>
       </c>
       <c r="ET16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU16" t="n">
-        <v>0</v>
+        <v>-0.03959466301732154</v>
       </c>
       <c r="EV16" t="n">
         <v>-0</v>
       </c>
       <c r="EW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY16" t="n">
-        <v>0</v>
+        <v>-0.09231393266458732</v>
       </c>
       <c r="EZ16" t="n">
-        <v>-0.03889451995851201</v>
+        <v>0</v>
       </c>
       <c r="FA16" t="n">
-        <v>0.03383292263557206</v>
+        <v>-0</v>
       </c>
       <c r="FB16" t="n">
-        <v>-0.03489514966421343</v>
+        <v>0.02193125867806608</v>
       </c>
       <c r="FC16" t="n">
         <v>-0</v>
       </c>
       <c r="FD16" t="n">
-        <v>0</v>
+        <v>0.03532723903125196</v>
       </c>
       <c r="FE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF16" t="n">
         <v>-0</v>
       </c>
       <c r="FG16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH16" t="n">
-        <v>0</v>
+        <v>-0.04400904787193322</v>
       </c>
       <c r="FI16" t="n">
-        <v>-0.06195701334604137</v>
+        <v>-0</v>
       </c>
       <c r="FJ16" t="n">
-        <v>-0.01640987630720478</v>
+        <v>0</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.01138200849789585</v>
+        <v>-0.1127322733516995</v>
       </c>
       <c r="FL16" t="n">
         <v>-0</v>
       </c>
       <c r="FM16" t="n">
-        <v>0</v>
+        <v>0.02411277505497511</v>
       </c>
       <c r="FN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO16" t="n">
         <v>-0</v>
       </c>
       <c r="FP16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ16" t="n">
-        <v>-0</v>
+        <v>-0.009793930386886193</v>
       </c>
       <c r="FR16" t="n">
-        <v>0.001997429208128191</v>
+        <v>-0</v>
       </c>
       <c r="FS16" t="n">
-        <v>0.03018936638441815</v>
+        <v>-0</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.001562851300729022</v>
+        <v>0.005182557770810742</v>
       </c>
       <c r="FU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV16" t="n">
-        <v>-0</v>
+        <v>-0.03051656735267664</v>
       </c>
       <c r="FW16" t="n">
         <v>0</v>
@@ -9510,31 +9510,31 @@
         <v>-0</v>
       </c>
       <c r="FY16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ16" t="n">
-        <v>-0</v>
+        <v>-0.05903719563294344</v>
       </c>
       <c r="GA16" t="n">
-        <v>0.035764903128905</v>
+        <v>0</v>
       </c>
       <c r="GB16" t="n">
-        <v>-0.02925703867203719</v>
+        <v>-0</v>
       </c>
       <c r="GC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD16" t="n">
         <v>-0</v>
       </c>
       <c r="GE16" t="n">
-        <v>-0</v>
+        <v>0.001741469352806429</v>
       </c>
       <c r="GF16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17">
@@ -9545,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>-0</v>
       </c>
       <c r="F17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -9572,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9581,7 +9581,7 @@
         <v>-0</v>
       </c>
       <c r="O17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -9608,7 +9608,7 @@
         <v>-0</v>
       </c>
       <c r="X17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -9626,7 +9626,7 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>-0</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN17" t="n">
         <v>0</v>
@@ -9662,7 +9662,7 @@
         <v>-0</v>
       </c>
       <c r="AP17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ17" t="n">
         <v>0</v>
@@ -9680,7 +9680,7 @@
         <v>0</v>
       </c>
       <c r="AV17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW17" t="n">
         <v>0</v>
@@ -9689,7 +9689,7 @@
         <v>-0</v>
       </c>
       <c r="AY17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ17" t="n">
         <v>0</v>
@@ -9707,7 +9707,7 @@
         <v>0</v>
       </c>
       <c r="BE17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF17" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>-0</v>
       </c>
       <c r="BH17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI17" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="BN17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO17" t="n">
         <v>0</v>
@@ -9743,7 +9743,7 @@
         <v>-0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR17" t="n">
         <v>0</v>
@@ -9761,7 +9761,7 @@
         <v>0</v>
       </c>
       <c r="BW17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX17" t="n">
         <v>0</v>
@@ -9770,7 +9770,7 @@
         <v>-0</v>
       </c>
       <c r="BZ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA17" t="n">
         <v>0</v>
@@ -9788,7 +9788,7 @@
         <v>0</v>
       </c>
       <c r="CF17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG17" t="n">
         <v>0</v>
@@ -9797,7 +9797,7 @@
         <v>-0</v>
       </c>
       <c r="CI17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ17" t="n">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="CO17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP17" t="n">
         <v>0</v>
@@ -9824,7 +9824,7 @@
         <v>-0</v>
       </c>
       <c r="CR17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS17" t="n">
         <v>0</v>
@@ -9869,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="DG17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>-0</v>
       </c>
       <c r="DJ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK17" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="DP17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ17" t="n">
         <v>0</v>
@@ -9905,7 +9905,7 @@
         <v>-0</v>
       </c>
       <c r="DS17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT17" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="EH17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI17" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>-0</v>
       </c>
       <c r="EK17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL17" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="EQ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER17" t="n">
         <v>0</v>
@@ -9986,7 +9986,7 @@
         <v>-0</v>
       </c>
       <c r="ET17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU17" t="n">
         <v>0</v>
@@ -10004,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="EZ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA17" t="n">
         <v>0</v>
@@ -10013,7 +10013,7 @@
         <v>-0</v>
       </c>
       <c r="FC17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD17" t="n">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>0</v>
       </c>
       <c r="FI17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ17" t="n">
         <v>0</v>
@@ -10040,7 +10040,7 @@
         <v>-0</v>
       </c>
       <c r="FL17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM17" t="n">
         <v>0</v>
@@ -10058,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="FR17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS17" t="n">
         <v>0</v>
@@ -10067,7 +10067,7 @@
         <v>-0</v>
       </c>
       <c r="FU17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV17" t="n">
         <v>0</v>
@@ -10108,22 +10108,22 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4770588444534222</v>
+        <v>-0.1869573382331637</v>
       </c>
       <c r="C18" t="n">
         <v>-0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.3023184592343354</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.08145923210450737</v>
+        <v>0.02272039432838016</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2381446709960382</v>
+        <v>-0</v>
       </c>
       <c r="G18" t="n">
         <v>-0</v>
@@ -10135,22 +10135,22 @@
         <v>-0</v>
       </c>
       <c r="J18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4346915054934279</v>
+        <v>-0.1604474752503273</v>
       </c>
       <c r="L18" t="n">
         <v>-0</v>
       </c>
       <c r="M18" t="n">
-        <v>-0</v>
+        <v>0.327655719272808</v>
       </c>
       <c r="N18" t="n">
-        <v>0.03928001734693582</v>
+        <v>0.1113456600398723</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.3067204206549781</v>
+        <v>-0</v>
       </c>
       <c r="P18" t="n">
         <v>-0</v>
@@ -10165,106 +10165,106 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.01937080832865748</v>
+        <v>-0.02691806874379581</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>-0</v>
+        <v>0.0143252989727879</v>
       </c>
       <c r="W18" t="n">
-        <v>0.04959992288228052</v>
+        <v>0.1060886056445353</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.03816237828834269</v>
+        <v>-0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.124622119462728</v>
+        <v>-0.04970619789400177</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>0.03045049329929172</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.008374310721442723</v>
+        <v>0.009733480363607931</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.03647993417761625</v>
+        <v>-0</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.05812533843296169</v>
+        <v>-0.05487763676867052</v>
       </c>
       <c r="AM18" t="n">
         <v>-0</v>
       </c>
       <c r="AN18" t="n">
-        <v>-0</v>
+        <v>0.01266633104407108</v>
       </c>
       <c r="AO18" t="n">
-        <v>-0.005949094964541259</v>
+        <v>-0.02272793854071766</v>
       </c>
       <c r="AP18" t="n">
-        <v>-0.07947808455820422</v>
+        <v>-0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.201290449597446</v>
+        <v>-0.286873477679045</v>
       </c>
       <c r="AV18" t="n">
         <v>-0</v>
       </c>
       <c r="AW18" t="n">
-        <v>-0</v>
+        <v>0.006458170809651075</v>
       </c>
       <c r="AX18" t="n">
-        <v>-0.01046551305022332</v>
+        <v>-0.1412027336967856</v>
       </c>
       <c r="AY18" t="n">
-        <v>-0.1019406975342242</v>
+        <v>-0</v>
       </c>
       <c r="AZ18" t="n">
         <v>-0</v>
       </c>
       <c r="BA18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB18" t="n">
         <v>-0</v>
@@ -10273,76 +10273,76 @@
         <v>0</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.1750721585844235</v>
+        <v>0.02976041038025856</v>
       </c>
       <c r="BE18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF18" t="n">
-        <v>0</v>
+        <v>0.166452845645908</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.04710500526081705</v>
+        <v>0.2375478576965494</v>
       </c>
       <c r="BH18" t="n">
-        <v>-0.05939261564080582</v>
+        <v>-0</v>
       </c>
       <c r="BI18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL18" t="n">
         <v>0</v>
       </c>
       <c r="BM18" t="n">
-        <v>-0.01697237164251514</v>
+        <v>0.0462724637641261</v>
       </c>
       <c r="BN18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO18" t="n">
-        <v>0</v>
+        <v>0.03683820245122325</v>
       </c>
       <c r="BP18" t="n">
-        <v>0.08631842802587168</v>
+        <v>-0.06523694290064841</v>
       </c>
       <c r="BQ18" t="n">
-        <v>0.1601435482452402</v>
+        <v>0</v>
       </c>
       <c r="BR18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS18" t="n">
         <v>-0</v>
       </c>
       <c r="BT18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV18" t="n">
-        <v>0.0771019097045693</v>
+        <v>-0.1781186781916282</v>
       </c>
       <c r="BW18" t="n">
         <v>0</v>
       </c>
       <c r="BX18" t="n">
-        <v>-0</v>
+        <v>-0.01236493487917666</v>
       </c>
       <c r="BY18" t="n">
-        <v>-0.08417873381328454</v>
+        <v>-0.008724332733459643</v>
       </c>
       <c r="BZ18" t="n">
-        <v>-0.1826910536023095</v>
+        <v>-0</v>
       </c>
       <c r="CA18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB18" t="n">
         <v>0</v>
@@ -10354,19 +10354,19 @@
         <v>0</v>
       </c>
       <c r="CE18" t="n">
-        <v>-0.08852426079697072</v>
+        <v>0.04387018383907025</v>
       </c>
       <c r="CF18" t="n">
         <v>0</v>
       </c>
       <c r="CG18" t="n">
-        <v>-0</v>
+        <v>-0.08760037473582617</v>
       </c>
       <c r="CH18" t="n">
-        <v>0.00362607385537192</v>
+        <v>0.02148408688146284</v>
       </c>
       <c r="CI18" t="n">
-        <v>0.06003865439492718</v>
+        <v>-0</v>
       </c>
       <c r="CJ18" t="n">
         <v>0</v>
@@ -10375,85 +10375,85 @@
         <v>-0</v>
       </c>
       <c r="CL18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM18" t="n">
         <v>-0</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.02832383596226008</v>
+        <v>-0.01388834498071505</v>
       </c>
       <c r="CO18" t="n">
         <v>0</v>
       </c>
       <c r="CP18" t="n">
-        <v>-0</v>
+        <v>-0.0215314864692131</v>
       </c>
       <c r="CQ18" t="n">
-        <v>-0.05194421036100241</v>
+        <v>-0.008018795035296396</v>
       </c>
       <c r="CR18" t="n">
-        <v>-0.08612918495806067</v>
+        <v>-0</v>
       </c>
       <c r="CS18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT18" t="n">
         <v>0</v>
       </c>
       <c r="CU18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV18" t="n">
         <v>-0</v>
       </c>
       <c r="CW18" t="n">
-        <v>-0.07182576851211049</v>
+        <v>0.05158609911742962</v>
       </c>
       <c r="CX18" t="n">
         <v>-0</v>
       </c>
       <c r="CY18" t="n">
-        <v>0</v>
+        <v>-0.07684784951489181</v>
       </c>
       <c r="CZ18" t="n">
-        <v>-0.008182059311964574</v>
+        <v>0.001455367635933529</v>
       </c>
       <c r="DA18" t="n">
-        <v>0.06360086350376756</v>
+        <v>0</v>
       </c>
       <c r="DB18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC18" t="n">
         <v>0</v>
       </c>
       <c r="DD18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE18" t="n">
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>-0.03662037256453955</v>
+        <v>0.06348848124026969</v>
       </c>
       <c r="DG18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH18" t="n">
-        <v>0</v>
+        <v>-0.0007436809931250562</v>
       </c>
       <c r="DI18" t="n">
-        <v>-0.08700424044988457</v>
+        <v>-0.04827039199911155</v>
       </c>
       <c r="DJ18" t="n">
-        <v>-0.003070849488554489</v>
+        <v>-0</v>
       </c>
       <c r="DK18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM18" t="n">
         <v>-0</v>
@@ -10462,52 +10462,52 @@
         <v>0</v>
       </c>
       <c r="DO18" t="n">
-        <v>-0.002198867097033914</v>
+        <v>0.03755457765395096</v>
       </c>
       <c r="DP18" t="n">
         <v>0</v>
       </c>
       <c r="DQ18" t="n">
-        <v>-0</v>
+        <v>-0.1080578250472073</v>
       </c>
       <c r="DR18" t="n">
-        <v>-0.01365502072304718</v>
+        <v>-0.02462519411844031</v>
       </c>
       <c r="DS18" t="n">
-        <v>-0.07059426401114281</v>
+        <v>-0</v>
       </c>
       <c r="DT18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU18" t="n">
         <v>-0</v>
       </c>
       <c r="DV18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW18" t="n">
         <v>0</v>
       </c>
       <c r="DX18" t="n">
-        <v>-0.04914306332311165</v>
+        <v>-0.002575986165579502</v>
       </c>
       <c r="DY18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ18" t="n">
-        <v>-0</v>
+        <v>0.01733143302964566</v>
       </c>
       <c r="EA18" t="n">
-        <v>0.05479581147845768</v>
+        <v>-0.01297561302774764</v>
       </c>
       <c r="EB18" t="n">
-        <v>-0.04397035637986655</v>
+        <v>-0</v>
       </c>
       <c r="EC18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE18" t="n">
         <v>-0</v>
@@ -10516,46 +10516,46 @@
         <v>0</v>
       </c>
       <c r="EG18" t="n">
-        <v>-0.1251458912192989</v>
+        <v>-1.661808614858435e-05</v>
       </c>
       <c r="EH18" t="n">
         <v>0</v>
       </c>
       <c r="EI18" t="n">
-        <v>-0</v>
+        <v>-0.03391516116037453</v>
       </c>
       <c r="EJ18" t="n">
-        <v>0.08037601301737049</v>
+        <v>-0.02492316413475851</v>
       </c>
       <c r="EK18" t="n">
-        <v>0.07034775291462812</v>
+        <v>-0</v>
       </c>
       <c r="EL18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN18" t="n">
         <v>0</v>
       </c>
       <c r="EO18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP18" t="n">
-        <v>-0.02550103870643113</v>
+        <v>0.05047716562235082</v>
       </c>
       <c r="EQ18" t="n">
         <v>0</v>
       </c>
       <c r="ER18" t="n">
-        <v>0</v>
+        <v>-0.08673432366434224</v>
       </c>
       <c r="ES18" t="n">
-        <v>-0.007124934009578905</v>
+        <v>0.1004827382937108</v>
       </c>
       <c r="ET18" t="n">
-        <v>0.1120676159330898</v>
+        <v>0</v>
       </c>
       <c r="EU18" t="n">
         <v>0</v>
@@ -10570,19 +10570,19 @@
         <v>0</v>
       </c>
       <c r="EY18" t="n">
-        <v>-0.08601572752363887</v>
+        <v>0.06283022070518648</v>
       </c>
       <c r="EZ18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA18" t="n">
-        <v>-0</v>
+        <v>-0.08369018873682219</v>
       </c>
       <c r="FB18" t="n">
-        <v>0.00103017961806284</v>
+        <v>0.02190161719298093</v>
       </c>
       <c r="FC18" t="n">
-        <v>0.0794402552754799</v>
+        <v>-0</v>
       </c>
       <c r="FD18" t="n">
         <v>0</v>
@@ -10591,79 +10591,79 @@
         <v>-0</v>
       </c>
       <c r="FF18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG18" t="n">
         <v>0</v>
       </c>
       <c r="FH18" t="n">
-        <v>0.008197732574305885</v>
+        <v>0.05941678116704303</v>
       </c>
       <c r="FI18" t="n">
         <v>-0</v>
       </c>
       <c r="FJ18" t="n">
-        <v>-0</v>
+        <v>0.01588095675096045</v>
       </c>
       <c r="FK18" t="n">
-        <v>-0.01389049333246465</v>
+        <v>-0.04108164447852088</v>
       </c>
       <c r="FL18" t="n">
-        <v>0.03709661471611442</v>
+        <v>0</v>
       </c>
       <c r="FM18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN18" t="n">
         <v>-0</v>
       </c>
       <c r="FO18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ18" t="n">
-        <v>-0.03325202354672196</v>
+        <v>-0.00230800481226204</v>
       </c>
       <c r="FR18" t="n">
         <v>0</v>
       </c>
       <c r="FS18" t="n">
-        <v>-0</v>
+        <v>-0.04876600872004058</v>
       </c>
       <c r="FT18" t="n">
-        <v>-0.0004306702682410905</v>
+        <v>0.02332196084833215</v>
       </c>
       <c r="FU18" t="n">
-        <v>0.0290608492698082</v>
+        <v>0</v>
       </c>
       <c r="FV18" t="n">
         <v>0</v>
       </c>
       <c r="FW18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY18" t="n">
         <v>-0</v>
       </c>
       <c r="FZ18" t="n">
-        <v>0.002538015545928688</v>
+        <v>0.07653023830897418</v>
       </c>
       <c r="GA18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB18" t="n">
-        <v>-0</v>
+        <v>0.1406764507148384</v>
       </c>
       <c r="GC18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD18" t="n">
-        <v>-0.03565162577729169</v>
+        <v>0</v>
       </c>
       <c r="GE18" t="n">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="GG18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
